--- a/report/reliability/by-unidade/Instituto de Ciências Sociais - ICS.xlsx
+++ b/report/reliability/by-unidade/Instituto de Ciências Sociais - ICS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="51">
   <si>
     <t>Reliability Analysis of all</t>
   </si>
@@ -74,22 +74,25 @@
     <t>med.r</t>
   </si>
   <si>
+    <t>Item8</t>
+  </si>
+  <si>
     <t>Item9</t>
   </si>
   <si>
     <t>Item10</t>
   </si>
   <si>
-    <t>Item12</t>
-  </si>
-  <si>
-    <t>Item13</t>
+    <t>Item14</t>
   </si>
   <si>
     <t>Item15</t>
   </si>
   <si>
     <t>Item16</t>
+  </si>
+  <si>
+    <t>Item17</t>
   </si>
   <si>
     <t>Item18</t>
@@ -175,7 +178,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="481">
+  <fonts count="480">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -983,11 +986,6 @@
       <sz val="12.0"/>
       <color rgb="000000"/>
       <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color rgb="000000"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3137,7 +3135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="803">
+  <cellXfs count="802">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3400,6 +3398,7 @@
     <xf numFmtId="0" fontId="135" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="136" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="137" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="139" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3427,14 +3426,13 @@
     <xf numFmtId="0" fontId="150" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="151" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="152" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="153" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="154" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3443,6 +3441,7 @@
     <xf numFmtId="0" fontId="158" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="159" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="161" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3458,14 +3457,13 @@
     <xf numFmtId="0" fontId="167" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="170" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="171" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3473,6 +3471,7 @@
     <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="177" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3488,20 +3487,20 @@
     <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="185" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="186" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="187" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="188" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="189" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="190" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="191" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="192" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="193" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3517,20 +3516,20 @@
     <xf numFmtId="0" fontId="198" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="200" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="199" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="200" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="201" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="202" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="203" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3558,14 +3557,13 @@
     <xf numFmtId="0" fontId="219" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="221" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="223" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3574,6 +3572,7 @@
     <xf numFmtId="0" fontId="227" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="229" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="230" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="231" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3589,14 +3588,13 @@
     <xf numFmtId="0" fontId="236" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="238" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="237" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="238" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="239" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="240" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="241" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3604,6 +3602,7 @@
     <xf numFmtId="0" fontId="243" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="244" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="245" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="246" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="247" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3619,20 +3618,20 @@
     <xf numFmtId="0" fontId="252" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="255" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="256" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="261" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="262" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3648,19 +3647,19 @@
     <xf numFmtId="0" fontId="267" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="268" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="269" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="271" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="272" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="273" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="275" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3688,14 +3687,13 @@
     <xf numFmtId="0" fontId="287" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="289" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="288" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="289" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="290" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="291" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="292" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3704,6 +3702,7 @@
     <xf numFmtId="0" fontId="295" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="296" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="297" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="298" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="299" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3719,14 +3718,13 @@
     <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="305" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="306" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="307" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="309" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3734,6 +3732,7 @@
     <xf numFmtId="0" fontId="311" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="312" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="313" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3749,20 +3748,20 @@
     <xf numFmtId="0" fontId="320" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="321" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="325" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="326" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="327" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="328" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="329" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="330" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3778,19 +3777,19 @@
     <xf numFmtId="0" fontId="335" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="336" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="337" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="339" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="341" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3818,14 +3817,13 @@
     <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="356" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="357" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="358" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="360" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3834,6 +3832,7 @@
     <xf numFmtId="0" fontId="363" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="364" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="367" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3849,14 +3848,13 @@
     <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="373" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="374" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="375" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="377" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3864,6 +3862,7 @@
     <xf numFmtId="0" fontId="379" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="380" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="381" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3879,20 +3878,20 @@
     <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="390" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="391" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="392" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="394" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="396" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="397" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="398" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3908,19 +3907,19 @@
     <xf numFmtId="0" fontId="403" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="405" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="406" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="407" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="408" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="409" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="410" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="411" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="412" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3948,14 +3947,13 @@
     <xf numFmtId="0" fontId="423" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="424" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="425" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="426" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="427" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="428" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3964,6 +3962,7 @@
     <xf numFmtId="0" fontId="431" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="432" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="434" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="435" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3979,14 +3978,13 @@
     <xf numFmtId="0" fontId="440" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="442" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="441" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="442" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="443" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="444" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="445" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -3994,6 +3992,7 @@
     <xf numFmtId="0" fontId="447" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="448" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="449" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="451" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4009,20 +4008,20 @@
     <xf numFmtId="0" fontId="456" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="457" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="458" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="459" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="460" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="461" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="463" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="464" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="465" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -4038,21 +4037,19 @@
     <xf numFmtId="0" fontId="471" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
+    <xf numFmtId="0" fontId="472" fillId="0" borderId="4" xfId="0" applyBorder="true" applyFont="true">
       <alignment horizontal="center" wrapText="true"/>
     </xf>
+    <xf numFmtId="0" fontId="473" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="474" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="475" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="476" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="477" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="479" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="480" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -4128,31 +4125,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="31">
-        <v>0.7996475651496153</v>
+        <v>0.7934226927261057</v>
       </c>
       <c r="B6" t="n" s="32">
-        <v>0.7956873713655326</v>
+        <v>0.8113875782911841</v>
       </c>
       <c r="C6" t="n" s="33">
-        <v>0.9184353216852033</v>
+        <v>0.9310407462346245</v>
       </c>
       <c r="D6" t="n" s="34">
-        <v>0.24501996563979822</v>
+        <v>0.24863646617240084</v>
       </c>
       <c r="E6" t="n" s="35">
-        <v>3.8944600570387893</v>
+        <v>4.301877739228769</v>
       </c>
       <c r="F6" t="n" s="36">
-        <v>0.04461209433193818</v>
+        <v>0.04362015270623199</v>
       </c>
       <c r="G6" t="n" s="37">
-        <v>2.5899122807017543</v>
+        <v>1.9777327935222673</v>
       </c>
       <c r="H6" t="n" s="38">
-        <v>0.8536667024923764</v>
+        <v>0.7523953740503202</v>
       </c>
       <c r="I6" t="n" s="39">
-        <v>0.2715661614011963</v>
+        <v>0.22724782225810303</v>
       </c>
     </row>
     <row r="7">
@@ -4202,28 +4199,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n" s="58">
-        <v>0.7710525260464706</v>
+        <v>0.792098770913753</v>
       </c>
       <c r="C11" t="n" s="59">
-        <v>0.7591984661888295</v>
+        <v>0.7986618935110666</v>
       </c>
       <c r="D11" t="n" s="60">
-        <v>0.8874053456920696</v>
+        <v>0.9183324168707188</v>
       </c>
       <c r="E11" t="n" s="61">
-        <v>0.22276850039339363</v>
+        <v>0.24843908625730804</v>
       </c>
       <c r="F11" t="n" s="62">
-        <v>3.1527974684088598</v>
+        <v>3.9667696664017553</v>
       </c>
       <c r="G11" t="n" s="63">
-        <v>0.05043098551217019</v>
+        <v>0.044882287330370925</v>
       </c>
       <c r="H11" t="n" s="64">
-        <v>0.05890877786374175</v>
+        <v>0.08280004664791145</v>
       </c>
       <c r="I11" t="n" s="65">
-        <v>0.2395871178825836</v>
+        <v>0.2560649097524089</v>
       </c>
     </row>
     <row r="12">
@@ -4231,28 +4228,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n" s="58">
-        <v>0.7906517435545868</v>
+        <v>0.7618819535409811</v>
       </c>
       <c r="C12" t="n" s="59">
-        <v>0.7847287067021812</v>
+        <v>0.7757224888028754</v>
       </c>
       <c r="D12" t="n" s="60">
-        <v>0.8986083594957661</v>
+        <v>0.9113641137371272</v>
       </c>
       <c r="E12" t="n" s="61">
-        <v>0.2489058545399794</v>
+        <v>0.2237411926254469</v>
       </c>
       <c r="F12" t="n" s="62">
-        <v>3.6453012135554057</v>
+        <v>3.4587618021187523</v>
       </c>
       <c r="G12" t="n" s="63">
-        <v>0.04641085507541369</v>
+        <v>0.04946524434905561</v>
       </c>
       <c r="H12" t="n" s="64">
-        <v>0.06098540537756767</v>
+        <v>0.08475371925340144</v>
       </c>
       <c r="I12" t="n" s="65">
-        <v>0.2897386039636793</v>
+        <v>0.2225318515799084</v>
       </c>
     </row>
     <row r="13">
@@ -4260,28 +4257,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n" s="58">
-        <v>0.7887056150551939</v>
+        <v>0.7833539605397285</v>
       </c>
       <c r="C13" t="n" s="59">
-        <v>0.7819586922903041</v>
+        <v>0.7966104834436312</v>
       </c>
       <c r="D13" t="n" s="60">
-        <v>0.8848214442256161</v>
+        <v>0.9228624065920691</v>
       </c>
       <c r="E13" t="n" s="61">
-        <v>0.24586702209263506</v>
+        <v>0.24607365791566443</v>
       </c>
       <c r="F13" t="n" s="62">
-        <v>3.5862869311507573</v>
+        <v>3.916674256034495</v>
       </c>
       <c r="G13" t="n" s="63">
-        <v>0.04724677085406707</v>
+        <v>0.04506153527203305</v>
       </c>
       <c r="H13" t="n" s="64">
-        <v>0.0614062450275922</v>
+        <v>0.08716360933534159</v>
       </c>
       <c r="I13" t="n" s="65">
-        <v>0.2606936229533505</v>
+        <v>0.22724782225810303</v>
       </c>
     </row>
     <row r="14">
@@ -4289,28 +4286,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n" s="58">
-        <v>0.7901942250815623</v>
+        <v>0.7788394854117092</v>
       </c>
       <c r="C14" t="n" s="59">
-        <v>0.7855858184305791</v>
+        <v>0.7857540233007442</v>
       </c>
       <c r="D14" t="n" s="60">
-        <v>0.8908446898168909</v>
+        <v>0.9137536873035216</v>
       </c>
       <c r="E14" t="n" s="61">
-        <v>0.2498569926169585</v>
+        <v>0.23408486870718268</v>
       </c>
       <c r="F14" t="n" s="62">
-        <v>3.663870610984885</v>
+        <v>3.6675322235046366</v>
       </c>
       <c r="G14" t="n" s="63">
-        <v>0.04688909921563403</v>
+        <v>0.047653684149150895</v>
       </c>
       <c r="H14" t="n" s="64">
-        <v>0.06098877383652384</v>
+        <v>0.08128861675496578</v>
       </c>
       <c r="I14" t="n" s="65">
-        <v>0.28778394788962114</v>
+        <v>0.22724782225810303</v>
       </c>
     </row>
     <row r="15">
@@ -4318,28 +4315,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n" s="58">
-        <v>0.7579722287597083</v>
+        <v>0.7516721155708279</v>
       </c>
       <c r="C15" t="n" s="59">
-        <v>0.7638767282414626</v>
+        <v>0.7852089998452995</v>
       </c>
       <c r="D15" t="n" s="60">
-        <v>0.8858680012503622</v>
+        <v>0.9166348887002813</v>
       </c>
       <c r="E15" t="n" s="61">
-        <v>0.2272608868302972</v>
+        <v>0.23350544679647176</v>
       </c>
       <c r="F15" t="n" s="62">
-        <v>3.235075994638138</v>
+        <v>3.655688549705356</v>
       </c>
       <c r="G15" t="n" s="63">
-        <v>0.05587796700176869</v>
+        <v>0.05444570263934029</v>
       </c>
       <c r="H15" t="n" s="64">
-        <v>0.05756769301244971</v>
+        <v>0.07999925411967365</v>
       </c>
       <c r="I15" t="n" s="65">
-        <v>0.24050156551486057</v>
+        <v>0.22665325917945778</v>
       </c>
     </row>
     <row r="16">
@@ -4347,28 +4344,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n" s="58">
-        <v>0.7596316474615497</v>
+        <v>0.755376985886478</v>
       </c>
       <c r="C16" t="n" s="59">
-        <v>0.7637284344724352</v>
+        <v>0.7850393822890339</v>
       </c>
       <c r="D16" t="n" s="60">
-        <v>0.8844266600045447</v>
+        <v>0.9124686660828679</v>
       </c>
       <c r="E16" t="n" s="61">
-        <v>0.2271165667172151</v>
+        <v>0.2333255453562445</v>
       </c>
       <c r="F16" t="n" s="62">
-        <v>3.232417886456737</v>
+        <v>3.6520149162605713</v>
       </c>
       <c r="G16" t="n" s="63">
-        <v>0.055740256646955436</v>
+        <v>0.053736061460390935</v>
       </c>
       <c r="H16" t="n" s="64">
-        <v>0.057081805136675115</v>
+        <v>0.07965608505952544</v>
       </c>
       <c r="I16" t="n" s="65">
-        <v>0.24050156551486057</v>
+        <v>0.22506384430700643</v>
       </c>
     </row>
     <row r="17">
@@ -4376,28 +4373,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n" s="58">
-        <v>0.8106052004087658</v>
+        <v>0.7984127663826203</v>
       </c>
       <c r="C17" t="n" s="59">
-        <v>0.8092567446316972</v>
+        <v>0.8267621844288712</v>
       </c>
       <c r="D17" t="n" s="60">
-        <v>0.9218043788970034</v>
+        <v>0.9310201238012723</v>
       </c>
       <c r="E17" t="n" s="61">
-        <v>0.2783406767618944</v>
+        <v>0.2845393860028837</v>
       </c>
       <c r="F17" t="n" s="62">
-        <v>4.242649330216772</v>
+        <v>4.772411737605959</v>
       </c>
       <c r="G17" t="n" s="63">
-        <v>0.04188415311572013</v>
+        <v>0.04344603218718994</v>
       </c>
       <c r="H17" t="n" s="64">
-        <v>0.060105196960120594</v>
+        <v>0.0800710201406188</v>
       </c>
       <c r="I17" t="n" s="65">
-        <v>0.29550860037392</v>
+        <v>0.27826850307670725</v>
       </c>
     </row>
     <row r="18">
@@ -4405,28 +4402,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n" s="58">
-        <v>0.8246392259757298</v>
+        <v>0.8009528592954007</v>
       </c>
       <c r="C18" t="n" s="59">
-        <v>0.8237934556618496</v>
+        <v>0.8160225518419572</v>
       </c>
       <c r="D18" t="n" s="60">
-        <v>0.9276937844080707</v>
+        <v>0.9314564150359198</v>
       </c>
       <c r="E18" t="n" s="61">
-        <v>0.2982526926129986</v>
+        <v>0.26987086599810345</v>
       </c>
       <c r="F18" t="n" s="62">
-        <v>4.675158114904874</v>
+        <v>4.435448800990907</v>
       </c>
       <c r="G18" t="n" s="63">
-        <v>0.0396398970066553</v>
+        <v>0.04064532608863474</v>
       </c>
       <c r="H18" t="n" s="64">
-        <v>0.04818321579892388</v>
+        <v>0.09025182676450415</v>
       </c>
       <c r="I18" t="n" s="65">
-        <v>0.29550860037392</v>
+        <v>0.27826850307670725</v>
       </c>
     </row>
     <row r="19">
@@ -4434,28 +4431,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n" s="58">
-        <v>0.7783925451368667</v>
+        <v>0.8169206801902422</v>
       </c>
       <c r="C19" t="n" s="59">
-        <v>0.7767222736629992</v>
+        <v>0.8309608412186248</v>
       </c>
       <c r="D19" t="n" s="60">
-        <v>0.9042965743833506</v>
+        <v>0.9364082288710439</v>
       </c>
       <c r="E19" t="n" s="61">
-        <v>0.24026470442733358</v>
+        <v>0.2906035903153427</v>
       </c>
       <c r="F19" t="n" s="62">
-        <v>3.4787270831066484</v>
+        <v>4.9157890231419</v>
       </c>
       <c r="G19" t="n" s="63">
-        <v>0.04986071232921804</v>
+        <v>0.038164278468996844</v>
       </c>
       <c r="H19" t="n" s="64">
-        <v>0.06365133704290112</v>
+        <v>0.07831803429211714</v>
       </c>
       <c r="I19" t="n" s="65">
-        <v>0.2514361965514673</v>
+        <v>0.27826850307670725</v>
       </c>
     </row>
     <row r="20">
@@ -4463,28 +4460,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n" s="58">
-        <v>0.7786576617282189</v>
+        <v>0.767874053030303</v>
       </c>
       <c r="C20" t="n" s="59">
-        <v>0.7726752555314041</v>
+        <v>0.794319790877749</v>
       </c>
       <c r="D20" t="n" s="60">
-        <v>0.909298159880633</v>
+        <v>0.9286468390611774</v>
       </c>
       <c r="E20" t="n" s="61">
-        <v>0.23605769761947706</v>
+        <v>0.24347098857633942</v>
       </c>
       <c r="F20" t="n" s="62">
-        <v>3.3989931775251434</v>
+        <v>3.86191648806437</v>
       </c>
       <c r="G20" t="n" s="63">
-        <v>0.049163496781962523</v>
+        <v>0.049464530889762444</v>
       </c>
       <c r="H20" t="n" s="64">
-        <v>0.06626457732269538</v>
+        <v>0.09325262282778747</v>
       </c>
       <c r="I20" t="n" s="65">
-        <v>0.2606936229533505</v>
+        <v>0.2225318515799084</v>
       </c>
     </row>
     <row r="21">
@@ -4492,28 +4489,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n" s="58">
-        <v>0.7772245102719498</v>
+        <v>0.7695200585967987</v>
       </c>
       <c r="C21" t="n" s="59">
-        <v>0.7689974541617368</v>
+        <v>0.792306305640925</v>
       </c>
       <c r="D21" t="n" s="60">
-        <v>0.8987364033863193</v>
+        <v>0.9280890896045237</v>
       </c>
       <c r="E21" t="n" s="61">
-        <v>0.23232372796839137</v>
+        <v>0.24121625624714393</v>
       </c>
       <c r="F21" t="n" s="62">
-        <v>3.328956619812109</v>
+        <v>3.814782668707947</v>
       </c>
       <c r="G21" t="n" s="63">
-        <v>0.04891824329783319</v>
+        <v>0.04838144814976192</v>
       </c>
       <c r="H21" t="n" s="64">
-        <v>0.058524413229505044</v>
+        <v>0.09671844705595417</v>
       </c>
       <c r="I21" t="n" s="65">
-        <v>0.2514361965514673</v>
+        <v>0.22519621262243028</v>
       </c>
     </row>
     <row r="22">
@@ -4521,33 +4518,57 @@
         <v>29</v>
       </c>
       <c r="B22" t="n" s="58">
-        <v>0.7771363548945447</v>
+        <v>0.7701177750830183</v>
       </c>
       <c r="C22" t="n" s="59">
-        <v>0.7698919871037065</v>
+        <v>0.7929868400713583</v>
       </c>
       <c r="D22" t="n" s="60">
-        <v>0.9023804435990198</v>
+        <v>0.9186287723924218</v>
       </c>
       <c r="E22" t="n" s="61">
-        <v>0.2332242650970049</v>
+        <v>0.2419749197350973</v>
       </c>
       <c r="F22" t="n" s="62">
-        <v>3.34578521370608</v>
+        <v>3.830610770565043</v>
       </c>
       <c r="G22" t="n" s="63">
-        <v>0.049343064623510624</v>
+        <v>0.04771151759322214</v>
       </c>
       <c r="H22" t="n" s="64">
-        <v>0.058217819686409454</v>
+        <v>0.08874863993632658</v>
       </c>
       <c r="I22" t="n" s="65">
-        <v>0.24050156551486057</v>
+        <v>0.22506384430700643</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
+      <c r="A23" t="s" s="53">
+        <v>30</v>
+      </c>
+      <c r="B23" t="n" s="58">
+        <v>0.7695620221503076</v>
+      </c>
+      <c r="C23" t="n" s="59">
+        <v>0.7924967856761241</v>
+      </c>
+      <c r="D23" t="n" s="60">
+        <v>0.9195092856395342</v>
+      </c>
+      <c r="E23" t="n" s="61">
+        <v>0.2414282557079822</v>
+      </c>
+      <c r="F23" t="n" s="62">
+        <v>3.8192024555300486</v>
+      </c>
+      <c r="G23" t="n" s="63">
+        <v>0.04823828642128289</v>
+      </c>
+      <c r="H23" t="n" s="64">
+        <v>0.08863033690100645</v>
+      </c>
+      <c r="I23" t="n" s="65">
+        <v>0.2225318515799084</v>
       </c>
     </row>
     <row r="24">
@@ -4556,458 +4577,437 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="69">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="83">
+      <c r="A26" t="s" s="69">
         <v>31</v>
       </c>
-      <c r="C26" t="s" s="83">
+    </row>
+    <row r="27">
+      <c r="A27"/>
+      <c r="B27" t="s" s="83">
         <v>32</v>
       </c>
-      <c r="D26" t="s" s="83">
+      <c r="C27" t="s" s="83">
         <v>33</v>
       </c>
-      <c r="E26" t="s" s="83">
+      <c r="D27" t="s" s="83">
         <v>34</v>
       </c>
-      <c r="F26" t="s" s="83">
+      <c r="E27" t="s" s="83">
         <v>35</v>
       </c>
-      <c r="G26" t="s" s="83">
+      <c r="F27" t="s" s="83">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s" s="83">
         <v>9</v>
       </c>
-      <c r="H26" t="s" s="83">
+      <c r="H27" t="s" s="83">
         <v>10</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="79">
-        <v>18</v>
-      </c>
-      <c r="B27" t="n" s="84">
-        <v>38.0</v>
-      </c>
-      <c r="C27" t="n" s="85">
-        <v>0.7079878080547216</v>
-      </c>
-      <c r="D27" t="n" s="86">
-        <v>0.7387040921600211</v>
-      </c>
-      <c r="E27" t="n" s="87">
-        <v>0.7427386315839499</v>
-      </c>
-      <c r="F27" t="n" s="88">
-        <v>0.6401448039210874</v>
-      </c>
-      <c r="G27" t="n" s="89">
-        <v>3.473684210526316</v>
-      </c>
-      <c r="H27" t="n" s="90">
-        <v>1.224454475448825</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="79">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n" s="84">
         <v>38.0</v>
       </c>
       <c r="C28" t="n" s="85">
-        <v>0.49951205485158995</v>
+        <v>0.476561338577645</v>
       </c>
       <c r="D28" t="n" s="86">
-        <v>0.5228235196541051</v>
+        <v>0.5553747413503276</v>
       </c>
       <c r="E28" t="n" s="87">
-        <v>0.5109575770195958</v>
+        <v>0.5556909977313096</v>
       </c>
       <c r="F28" t="n" s="88">
-        <v>0.38347212684020227</v>
+        <v>0.45453528968278256</v>
       </c>
       <c r="G28" t="n" s="89">
-        <v>3.9473684210526314</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="H28" t="n" s="90">
-        <v>1.4322042814629075</v>
+        <v>0.2732763127330939</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="79">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B29" t="n" s="84">
         <v>38.0</v>
       </c>
       <c r="C29" t="n" s="85">
-        <v>0.508559760899019</v>
+        <v>0.7203496810780199</v>
       </c>
       <c r="D29" t="n" s="86">
-        <v>0.5479226511424372</v>
+        <v>0.7818872887078312</v>
       </c>
       <c r="E29" t="n" s="87">
-        <v>0.5436949935076285</v>
+        <v>0.7940309399512827</v>
       </c>
       <c r="F29" t="n" s="88">
-        <v>0.4271768133096701</v>
+        <v>0.6511953598332111</v>
       </c>
       <c r="G29" t="n" s="89">
-        <v>3.6842105263157894</v>
+        <v>3.473684210526316</v>
       </c>
       <c r="H29" t="n" s="90">
-        <v>1.0424830845187962</v>
+        <v>1.224454475448825</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="79">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B30" t="n" s="84">
         <v>38.0</v>
       </c>
       <c r="C30" t="n" s="85">
-        <v>0.4949625866152654</v>
+        <v>0.5062936873051942</v>
       </c>
       <c r="D30" t="n" s="86">
-        <v>0.5149676276063155</v>
+        <v>0.5770688666568733</v>
       </c>
       <c r="E30" t="n" s="87">
-        <v>0.5059407170530957</v>
+        <v>0.5660445708968276</v>
       </c>
       <c r="F30" t="n" s="88">
-        <v>0.388394513165332</v>
+        <v>0.3851181829146838</v>
       </c>
       <c r="G30" t="n" s="89">
-        <v>3.8684210526315788</v>
+        <v>3.9473684210526314</v>
       </c>
       <c r="H30" t="n" s="90">
-        <v>1.3187023234692454</v>
+        <v>1.4322042814629075</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="79">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B31" t="n" s="84">
         <v>38.0</v>
       </c>
       <c r="C31" t="n" s="85">
-        <v>0.7780640506021436</v>
+        <v>0.7577172468033612</v>
       </c>
       <c r="D31" t="n" s="86">
-        <v>0.7015993817720635</v>
+        <v>0.6870220158534558</v>
       </c>
       <c r="E31" t="n" s="87">
-        <v>0.7223547588411113</v>
+        <v>0.7082952392253168</v>
       </c>
       <c r="F31" t="n" s="88">
-        <v>0.6722228636977188</v>
+        <v>0.7351729103986515</v>
       </c>
       <c r="G31" t="n" s="89">
-        <v>1.5263157894736843</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="H31" t="n" s="90">
-        <v>2.127513992779762</v>
+        <v>0.4888515295293514</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="79">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32" t="n" s="84">
         <v>38.0</v>
       </c>
       <c r="C32" t="n" s="85">
-        <v>0.7789723906814106</v>
+        <v>0.7789959887415349</v>
       </c>
       <c r="D32" t="n" s="86">
-        <v>0.702791388754161</v>
+        <v>0.6923360857472771</v>
       </c>
       <c r="E32" t="n" s="87">
-        <v>0.7241468834321325</v>
+        <v>0.7091324239936407</v>
       </c>
       <c r="F32" t="n" s="88">
-        <v>0.6637595348783779</v>
+        <v>0.6670971863582654</v>
       </c>
       <c r="G32" t="n" s="89">
-        <v>1.6842105263157894</v>
+        <v>1.5263157894736843</v>
       </c>
       <c r="H32" t="n" s="90">
-        <v>2.279227739743427</v>
+        <v>2.127513992779762</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="79">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" t="n" s="84">
         <v>38.0</v>
       </c>
       <c r="C33" t="n" s="85">
-        <v>0.2419286353930251</v>
+        <v>0.7741050232969492</v>
       </c>
       <c r="D33" t="n" s="86">
-        <v>0.27970762363649254</v>
+        <v>0.6939860213290949</v>
       </c>
       <c r="E33" t="n" s="87">
-        <v>0.19328157618981645</v>
+        <v>0.7162226580624875</v>
       </c>
       <c r="F33" t="n" s="88">
-        <v>0.11921672764182308</v>
+        <v>0.64972600085587</v>
       </c>
       <c r="G33" t="n" s="89">
-        <v>2.3947368421052633</v>
+        <v>1.6842105263157894</v>
       </c>
       <c r="H33" t="n" s="90">
-        <v>1.2848277555021441</v>
+        <v>2.279227739743427</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="79">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n" s="84">
         <v>38.0</v>
       </c>
       <c r="C34" t="n" s="85">
-        <v>0.09792339646815583</v>
+        <v>0.10521094713036279</v>
       </c>
       <c r="D34" t="n" s="86">
-        <v>0.11524501745319743</v>
+        <v>0.22428695801033718</v>
       </c>
       <c r="E34" t="n" s="87">
-        <v>0.015524099921364342</v>
+        <v>0.1742009763220331</v>
       </c>
       <c r="F34" t="n" s="88">
-        <v>-0.038930415519435733</v>
+        <v>0.07362323935303915</v>
       </c>
       <c r="G34" t="n" s="89">
-        <v>2.3421052631578947</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="H34" t="n" s="90">
-        <v>1.4003149412064935</v>
+        <v>0.31101174777590485</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="79">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B35" t="n" s="84">
         <v>38.0</v>
       </c>
       <c r="C35" t="n" s="85">
-        <v>0.6204725012121254</v>
+        <v>0.2867683415458773</v>
       </c>
       <c r="D35" t="n" s="86">
-        <v>0.5941948001198145</v>
+        <v>0.3588168042301382</v>
       </c>
       <c r="E35" t="n" s="87">
-        <v>0.5594651847284192</v>
+        <v>0.3037359384612295</v>
       </c>
       <c r="F35" t="n" s="88">
-        <v>0.5157345768619093</v>
+        <v>0.16013071957520916</v>
       </c>
       <c r="G35" t="n" s="89">
-        <v>1.5</v>
+        <v>2.3947368421052633</v>
       </c>
       <c r="H35" t="n" s="90">
-        <v>1.5201351291285952</v>
+        <v>1.2848277555021441</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="79">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B36" t="n" s="84">
         <v>38.0</v>
       </c>
       <c r="C36" t="n" s="85">
-        <v>0.6181158666891954</v>
+        <v>0.12779418754582947</v>
       </c>
       <c r="D36" t="n" s="86">
-        <v>0.6289424273326853</v>
+        <v>0.16867013549963433</v>
       </c>
       <c r="E36" t="n" s="87">
-        <v>0.5807834819741322</v>
+        <v>0.10641865514261015</v>
       </c>
       <c r="F36" t="n" s="88">
-        <v>0.5265768785009296</v>
+        <v>-0.015495822628259787</v>
       </c>
       <c r="G36" t="n" s="89">
-        <v>2.3684210526315788</v>
+        <v>2.3421052631578947</v>
       </c>
       <c r="H36" t="n" s="90">
-        <v>1.3440771501259718</v>
+        <v>1.4003149412064935</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="79">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B37" t="n" s="84">
         <v>38.0</v>
       </c>
       <c r="C37" t="n" s="85">
-        <v>0.630357883854657</v>
+        <v>0.6498343402114136</v>
       </c>
       <c r="D37" t="n" s="86">
-        <v>0.6597830205111417</v>
+        <v>0.6009388075824935</v>
       </c>
       <c r="E37" t="n" s="87">
-        <v>0.6493548131367131</v>
+        <v>0.544564730966547</v>
       </c>
       <c r="F37" t="n" s="88">
-        <v>0.5296564825261837</v>
+        <v>0.5452752542346466</v>
       </c>
       <c r="G37" t="n" s="89">
-        <v>2.210526315789474</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n" s="90">
-        <v>1.491559944104269</v>
+        <v>1.5201351291285952</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n" s="84">
         <v>38.0</v>
       </c>
       <c r="C38" t="n" s="85">
-        <v>0.6316941009170337</v>
+        <v>0.6353558820120088</v>
       </c>
       <c r="D38" t="n" s="86">
-        <v>0.652345065246136</v>
+        <v>0.6216177031639588</v>
       </c>
       <c r="E38" t="n" s="87">
-        <v>0.6334375211671603</v>
+        <v>0.5667727343388491</v>
       </c>
       <c r="F38" t="n" s="88">
-        <v>0.5380199809361796</v>
+        <v>0.5419228946511284</v>
       </c>
       <c r="G38" t="n" s="89">
+        <v>2.3684210526315788</v>
+      </c>
+      <c r="H38" t="n" s="90">
+        <v>1.3440771501259718</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="79">
+        <v>29</v>
+      </c>
+      <c r="B39" t="n" s="84">
+        <v>38.0</v>
+      </c>
+      <c r="C39" t="n" s="85">
+        <v>0.6304493399579205</v>
+      </c>
+      <c r="D39" t="n" s="86">
+        <v>0.6146597495098968</v>
+      </c>
+      <c r="E39" t="n" s="87">
+        <v>0.5997620740861141</v>
+      </c>
+      <c r="F39" t="n" s="88">
+        <v>0.5243167182030882</v>
+      </c>
+      <c r="G39" t="n" s="89">
+        <v>2.210526315789474</v>
+      </c>
+      <c r="H39" t="n" s="90">
+        <v>1.491559944104269</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="79">
+        <v>30</v>
+      </c>
+      <c r="B40" t="n" s="84">
+        <v>38.0</v>
+      </c>
+      <c r="C40" t="n" s="85">
+        <v>0.6342088075598499</v>
+      </c>
+      <c r="D40" t="n" s="86">
+        <v>0.6196733860238549</v>
+      </c>
+      <c r="E40" t="n" s="87">
+        <v>0.5989077187624973</v>
+      </c>
+      <c r="F40" t="n" s="88">
+        <v>0.5359614873287387</v>
+      </c>
+      <c r="G40" t="n" s="89">
         <v>2.0789473684210527</v>
       </c>
-      <c r="H38" t="n" s="90">
+      <c r="H40" t="n" s="90">
         <v>1.4023451197878813</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s">
+    <row r="41">
+      <c r="A41" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="s">
+    <row r="42">
+      <c r="A42" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="s" s="94">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42"/>
-      <c r="B42" t="s" s="108">
+    <row r="43">
+      <c r="A43" t="s" s="94">
         <v>37</v>
       </c>
-      <c r="C42" t="s" s="108">
+    </row>
+    <row r="44">
+      <c r="A44"/>
+      <c r="B44" t="s" s="108">
         <v>38</v>
       </c>
-      <c r="D42" t="s" s="108">
+      <c r="C44" t="s" s="108">
         <v>39</v>
       </c>
-      <c r="E42" t="s" s="108">
+      <c r="D44" t="s" s="108">
         <v>40</v>
       </c>
-      <c r="F42" t="s" s="108">
+      <c r="E44" t="s" s="108">
         <v>41</v>
       </c>
-      <c r="G42" t="s" s="108">
+      <c r="F44" t="s" s="108">
         <v>42</v>
       </c>
-      <c r="H42" t="s" s="108">
+      <c r="G44" t="s" s="108">
         <v>43</v>
       </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="104">
-        <v>18</v>
-      </c>
-      <c r="B43" t="n" s="109">
-        <v>0.07894736842105263</v>
-      </c>
-      <c r="C43" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D43" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E43" t="n" s="112">
-        <v>0.34210526315789475</v>
-      </c>
-      <c r="F43" t="n" s="113">
-        <v>0.4473684210526316</v>
-      </c>
-      <c r="G43" t="n" s="114">
-        <v>0.13157894736842105</v>
-      </c>
-      <c r="H43" t="n" s="115">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="104">
-        <v>19</v>
-      </c>
-      <c r="B44" t="n" s="109">
-        <v>0.07894736842105263</v>
-      </c>
-      <c r="C44" t="n" s="110">
-        <v>0.0</v>
-      </c>
-      <c r="D44" t="n" s="111">
-        <v>0.0</v>
-      </c>
-      <c r="E44" t="n" s="112">
-        <v>0.23684210526315788</v>
-      </c>
-      <c r="F44" t="n" s="113">
-        <v>0.18421052631578946</v>
-      </c>
-      <c r="G44" t="n" s="114">
-        <v>0.5</v>
-      </c>
-      <c r="H44" t="n" s="115">
-        <v>0.0</v>
+      <c r="H44" t="s" s="108">
+        <v>44</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B45" t="n" s="109">
-        <v>0.02631578947368421</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C45" t="n" s="110">
-        <v>0.02631578947368421</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="D45" t="n" s="111">
-        <v>0.02631578947368421</v>
+        <v>0.0</v>
       </c>
       <c r="E45" t="n" s="112">
-        <v>0.23684210526315788</v>
+        <v>0.0</v>
       </c>
       <c r="F45" t="n" s="113">
-        <v>0.5263157894736842</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="n" s="114">
-        <v>0.15789473684210525</v>
+        <v>0.0</v>
       </c>
       <c r="H45" t="n" s="115">
         <v>0.0</v>
@@ -5015,25 +5015,25 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="104">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B46" t="n" s="109">
-        <v>0.02631578947368421</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C46" t="n" s="110">
-        <v>0.02631578947368421</v>
+        <v>0.0</v>
       </c>
       <c r="D46" t="n" s="111">
-        <v>0.05263157894736842</v>
+        <v>0.0</v>
       </c>
       <c r="E46" t="n" s="112">
         <v>0.34210526315789475</v>
       </c>
       <c r="F46" t="n" s="113">
-        <v>0.05263157894736842</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="G46" t="n" s="114">
-        <v>0.5</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="H46" t="n" s="115">
         <v>0.0</v>
@@ -5041,25 +5041,25 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="104">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B47" t="n" s="109">
-        <v>0.631578947368421</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C47" t="n" s="110">
-        <v>0.02631578947368421</v>
+        <v>0.0</v>
       </c>
       <c r="D47" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E47" t="n" s="112">
-        <v>0.02631578947368421</v>
+        <v>0.23684210526315788</v>
       </c>
       <c r="F47" t="n" s="113">
-        <v>0.15789473684210525</v>
+        <v>0.18421052631578946</v>
       </c>
       <c r="G47" t="n" s="114">
-        <v>0.15789473684210525</v>
+        <v>0.5</v>
       </c>
       <c r="H47" t="n" s="115">
         <v>0.0</v>
@@ -5067,25 +5067,25 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="104">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="n" s="109">
         <v>0.631578947368421</v>
       </c>
       <c r="C48" t="n" s="110">
-        <v>0.0</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="D48" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E48" t="n" s="112">
-        <v>0.05263157894736842</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n" s="113">
-        <v>0.05263157894736842</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n" s="114">
-        <v>0.2631578947368421</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n" s="115">
         <v>0.0</v>
@@ -5093,25 +5093,25 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="104">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B49" t="n" s="109">
-        <v>0.10526315789473684</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C49" t="n" s="110">
-        <v>0.18421052631578946</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="D49" t="n" s="111">
-        <v>0.07894736842105263</v>
+        <v>0.0</v>
       </c>
       <c r="E49" t="n" s="112">
-        <v>0.5</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="F49" t="n" s="113">
-        <v>0.10526315789473684</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="G49" t="n" s="114">
-        <v>0.02631578947368421</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="H49" t="n" s="115">
         <v>0.0</v>
@@ -5119,25 +5119,25 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="104">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B50" t="n" s="109">
-        <v>0.10526315789473684</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C50" t="n" s="110">
-        <v>0.15789473684210525</v>
+        <v>0.0</v>
       </c>
       <c r="D50" t="n" s="111">
-        <v>0.2894736842105263</v>
+        <v>0.0</v>
       </c>
       <c r="E50" t="n" s="112">
-        <v>0.2894736842105263</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="F50" t="n" s="113">
         <v>0.05263157894736842</v>
       </c>
       <c r="G50" t="n" s="114">
-        <v>0.10526315789473684</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="H50" t="n" s="115">
         <v>0.0</v>
@@ -5145,22 +5145,22 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="104">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B51" t="n" s="109">
-        <v>0.39473684210526316</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="C51" t="n" s="110">
-        <v>0.21052631578947367</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="D51" t="n" s="111">
         <v>0.0</v>
       </c>
       <c r="E51" t="n" s="112">
-        <v>0.2894736842105263</v>
+        <v>0.0</v>
       </c>
       <c r="F51" t="n" s="113">
-        <v>0.10526315789473684</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="n" s="114">
         <v>0.0</v>
@@ -5171,25 +5171,25 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="104">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="n" s="109">
-        <v>0.15789473684210525</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="C52" t="n" s="110">
-        <v>0.13157894736842105</v>
+        <v>0.18421052631578946</v>
       </c>
       <c r="D52" t="n" s="111">
-        <v>0.05263157894736842</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="E52" t="n" s="112">
         <v>0.5</v>
       </c>
       <c r="F52" t="n" s="113">
-        <v>0.15789473684210525</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="G52" t="n" s="114">
-        <v>0.0</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="H52" t="n" s="115">
         <v>0.0</v>
@@ -5197,25 +5197,25 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="104">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B53" t="n" s="109">
-        <v>0.23684210526315788</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="C53" t="n" s="110">
-        <v>0.02631578947368421</v>
+        <v>0.15789473684210525</v>
       </c>
       <c r="D53" t="n" s="111">
         <v>0.2894736842105263</v>
       </c>
       <c r="E53" t="n" s="112">
-        <v>0.18421052631578946</v>
+        <v>0.2894736842105263</v>
       </c>
       <c r="F53" t="n" s="113">
-        <v>0.2631578947368421</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="G53" t="n" s="114">
-        <v>0.0</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="H53" t="n" s="115">
         <v>0.0</v>
@@ -5223,27 +5223,105 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="104">
+        <v>27</v>
+      </c>
+      <c r="B54" t="n" s="109">
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="C54" t="n" s="110">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="D54" t="n" s="111">
+        <v>0.0</v>
+      </c>
+      <c r="E54" t="n" s="112">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="F54" t="n" s="113">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="G54" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H54" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="104">
+        <v>28</v>
+      </c>
+      <c r="B55" t="n" s="109">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="C55" t="n" s="110">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="D55" t="n" s="111">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="E55" t="n" s="112">
+        <v>0.5</v>
+      </c>
+      <c r="F55" t="n" s="113">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="G55" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H55" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="104">
         <v>29</v>
       </c>
-      <c r="B54" t="n" s="109">
+      <c r="B56" t="n" s="109">
         <v>0.23684210526315788</v>
       </c>
-      <c r="C54" t="n" s="110">
+      <c r="C56" t="n" s="110">
         <v>0.02631578947368421</v>
       </c>
-      <c r="D54" t="n" s="111">
+      <c r="D56" t="n" s="111">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="E56" t="n" s="112">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="F56" t="n" s="113">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="G56" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H56" t="n" s="115">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="104">
+        <v>30</v>
+      </c>
+      <c r="B57" t="n" s="109">
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="C57" t="n" s="110">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="D57" t="n" s="111">
         <v>0.34210526315789475</v>
       </c>
-      <c r="E54" t="n" s="112">
+      <c r="E57" t="n" s="112">
         <v>0.21052631578947367</v>
       </c>
-      <c r="F54" t="n" s="113">
+      <c r="F57" t="n" s="113">
         <v>0.18421052631578946</v>
       </c>
-      <c r="G54" t="n" s="114">
-        <v>0.0</v>
-      </c>
-      <c r="H54" t="n" s="115">
+      <c r="G57" t="n" s="114">
+        <v>0.0</v>
+      </c>
+      <c r="H57" t="n" s="115">
         <v>0.0</v>
       </c>
     </row>
@@ -5274,7 +5352,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="117">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -5323,31 +5401,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n" s="146">
-        <v>0.7386697179244814</v>
+        <v>0.8626046850345915</v>
       </c>
       <c r="B6" t="n" s="147">
-        <v>0.7435813625500114</v>
+        <v>0.9878027488205001</v>
       </c>
       <c r="C6" t="n" s="148">
-        <v>0.8680833810778725</v>
+        <v>0.9837234550832478</v>
       </c>
       <c r="D6" t="n" s="149">
-        <v>0.42027914523816384</v>
+        <v>0.96427962718051</v>
       </c>
       <c r="E6" t="n" s="150">
-        <v>2.8998725285522116</v>
+        <v>80.98568556829609</v>
       </c>
       <c r="F6" t="n" s="151">
-        <v>0.07461497536702157</v>
+        <v>0.0051377103995043985</v>
       </c>
       <c r="G6" t="n" s="152">
-        <v>3.7434210526315788</v>
+        <v>1.1929824561403508</v>
       </c>
       <c r="H6" t="n" s="153">
-        <v>0.9452706642724068</v>
+        <v>1.6138134550039427</v>
       </c>
       <c r="I6" t="n" s="154">
-        <v>0.2860886519063607</v>
+        <v>0.9604244398592969</v>
       </c>
     </row>
     <row r="7">
@@ -5394,118 +5472,88 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="168">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B11" t="n" s="173">
-        <v>0.6366154621002267</v>
+        <v>0.9786280077716336</v>
       </c>
       <c r="C11" t="n" s="174">
-        <v>0.6638290198355907</v>
+        <v>0.9798127592494494</v>
       </c>
       <c r="D11" t="n" s="175">
-        <v>0.6915408477843792</v>
+        <v>0.9604244398592969</v>
       </c>
       <c r="E11" t="n" s="176">
-        <v>0.39694574171006725</v>
+        <v>0.9604244398592969</v>
       </c>
       <c r="F11" t="n" s="177">
-        <v>1.9746767538082424</v>
+        <v>48.536239863425706</v>
       </c>
       <c r="G11" t="n" s="178">
-        <v>0.10749199424838596</v>
-      </c>
-      <c r="H11" t="n" s="179">
-        <v>0.11275731719088651</v>
-      </c>
+        <v>0.006730909210057253</v>
+      </c>
+      <c r="H11" s="179"/>
       <c r="I11" t="n" s="180">
-        <v>0.28243869984904213</v>
+        <v>0.9604244398592969</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="168">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B12" t="n" s="173">
-        <v>0.6862342760281916</v>
+        <v>0.573562359970127</v>
       </c>
       <c r="C12" t="n" s="174">
-        <v>0.6979342304194769</v>
+        <v>0.9901466301971509</v>
       </c>
       <c r="D12" t="n" s="175">
-        <v>0.6965516145504398</v>
+        <v>0.9804855435502033</v>
       </c>
       <c r="E12" t="n" s="176">
-        <v>0.43508541125280376</v>
+        <v>0.9804855435502033</v>
       </c>
       <c r="F12" t="n" s="177">
-        <v>2.310537309105543</v>
+        <v>100.48812233870035</v>
       </c>
       <c r="G12" t="n" s="178">
-        <v>0.09170046145322014</v>
-      </c>
-      <c r="H12" t="n" s="179">
-        <v>0.08727070813935908</v>
-      </c>
+        <v>0.012182585932279104</v>
+      </c>
+      <c r="H12" s="179"/>
       <c r="I12" t="n" s="180">
-        <v>0.2897386039636793</v>
+        <v>0.9804855435502032</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="168">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B13" t="n" s="173">
-        <v>0.7018673535093367</v>
+        <v>0.5870940531421343</v>
       </c>
       <c r="C13" t="n" s="174">
-        <v>0.7031273510587059</v>
+        <v>0.9753725138687306</v>
       </c>
       <c r="D13" t="n" s="175">
-        <v>0.7115430970319641</v>
+        <v>0.9519288981320295</v>
       </c>
       <c r="E13" t="n" s="176">
-        <v>0.4411792473947149</v>
+        <v>0.9519288981320293</v>
       </c>
       <c r="F13" t="n" s="177">
-        <v>2.3684477285671</v>
+        <v>39.605037585638954</v>
       </c>
       <c r="G13" t="n" s="178">
-        <v>0.08672817183744976</v>
-      </c>
-      <c r="H13" t="n" s="179">
-        <v>0.09732577854157641</v>
-      </c>
+        <v>0.019692958976557356</v>
+      </c>
+      <c r="H13" s="179"/>
       <c r="I13" t="n" s="180">
-        <v>0.28243869984904213</v>
+        <v>0.9519288981320294</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="168">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="173">
-        <v>0.6895923102419623</v>
-      </c>
-      <c r="C14" t="n" s="174">
-        <v>0.6739234559363538</v>
-      </c>
-      <c r="D14" t="n" s="175">
-        <v>0.7131890344928067</v>
-      </c>
-      <c r="E14" t="n" s="176">
-        <v>0.40790618059506983</v>
-      </c>
-      <c r="F14" t="n" s="177">
-        <v>2.0667645931772753</v>
-      </c>
-      <c r="G14" t="n" s="178">
-        <v>0.08474228204705422</v>
-      </c>
-      <c r="H14" t="n" s="179">
-        <v>0.12176665145877338</v>
-      </c>
-      <c r="I14" t="n" s="180">
-        <v>0.2897386039636793</v>
+      <c r="A14" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -5514,283 +5562,214 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>1</v>
+      <c r="A16" t="s" s="184">
+        <v>31</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="184">
-        <v>30</v>
+      <c r="A17"/>
+      <c r="B17" t="s" s="198">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s" s="198">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s" s="198">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s" s="198">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s" s="198">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="198">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s" s="198">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18"/>
-      <c r="B18" t="s" s="198">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s" s="198">
-        <v>32</v>
-      </c>
-      <c r="D18" t="s" s="198">
-        <v>33</v>
-      </c>
-      <c r="E18" t="s" s="198">
-        <v>34</v>
-      </c>
-      <c r="F18" t="s" s="198">
-        <v>35</v>
-      </c>
-      <c r="G18" t="s" s="198">
-        <v>9</v>
-      </c>
-      <c r="H18" t="s" s="198">
-        <v>10</v>
+      <c r="A18" t="s" s="194">
+        <v>21</v>
+      </c>
+      <c r="B18" t="n" s="199">
+        <v>38.0</v>
+      </c>
+      <c r="C18" t="n" s="200">
+        <v>0.9808740935926199</v>
+      </c>
+      <c r="D18" t="n" s="201">
+        <v>0.9893221086538757</v>
+      </c>
+      <c r="E18" t="n" s="202">
+        <v>0.9847871267691385</v>
+      </c>
+      <c r="F18" t="n" s="203">
+        <v>0.9763958460239812</v>
+      </c>
+      <c r="G18" t="n" s="204">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="H18" t="n" s="205">
+        <v>0.4888515295293514</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="194">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19" t="n" s="199">
         <v>38.0</v>
       </c>
       <c r="C19" t="n" s="200">
-        <v>0.7908505175571883</v>
+        <v>0.9877002617748787</v>
       </c>
       <c r="D19" t="n" s="201">
-        <v>0.7750814809450574</v>
+        <v>0.9825540020986421</v>
       </c>
       <c r="E19" t="n" s="202">
-        <v>0.7306243907401396</v>
+        <v>0.9651825011772989</v>
       </c>
       <c r="F19" t="n" s="203">
-        <v>0.6066353436066036</v>
+        <v>0.9616568620776957</v>
       </c>
       <c r="G19" t="n" s="204">
-        <v>3.473684210526316</v>
+        <v>1.5263157894736843</v>
       </c>
       <c r="H19" t="n" s="205">
-        <v>1.224454475448825</v>
+        <v>2.127513992779762</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="194">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20" t="n" s="199">
         <v>38.0</v>
       </c>
       <c r="C20" t="n" s="200">
-        <v>0.7733237380039307</v>
+        <v>0.9918238520296117</v>
       </c>
       <c r="D20" t="n" s="201">
-        <v>0.7370333334060633</v>
+        <v>0.9921882885281488</v>
       </c>
       <c r="E20" t="n" s="202">
-        <v>0.6912805492584929</v>
+        <v>0.9898734434347758</v>
       </c>
       <c r="F20" t="n" s="203">
-        <v>0.5283465376102429</v>
+        <v>0.9712927564283819</v>
       </c>
       <c r="G20" t="n" s="204">
-        <v>3.9473684210526314</v>
+        <v>1.6842105263157894</v>
       </c>
       <c r="H20" t="n" s="205">
-        <v>1.4322042814629075</v>
+        <v>2.279227739743427</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="194">
-        <v>20</v>
-      </c>
-      <c r="B21" t="n" s="199">
-        <v>38.0</v>
-      </c>
-      <c r="C21" t="n" s="200">
-        <v>0.6903581508243404</v>
-      </c>
-      <c r="D21" t="n" s="201">
-        <v>0.7309541203613333</v>
-      </c>
-      <c r="E21" t="n" s="202">
-        <v>0.674066455668602</v>
-      </c>
-      <c r="F21" t="n" s="203">
-        <v>0.4972575257124687</v>
-      </c>
-      <c r="G21" t="n" s="204">
-        <v>3.6842105263157894</v>
-      </c>
-      <c r="H21" t="n" s="205">
-        <v>1.0424830845187962</v>
+      <c r="A21" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="194">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="209">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="223">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="223">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="223">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s" s="223">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="223">
+        <v>43</v>
+      </c>
+      <c r="G24" t="s" s="223">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="219">
         <v>21</v>
       </c>
-      <c r="B22" t="n" s="199">
-        <v>38.0</v>
-      </c>
-      <c r="C22" t="n" s="200">
-        <v>0.7473088663732165</v>
-      </c>
-      <c r="D22" t="n" s="201">
-        <v>0.7641473433191028</v>
-      </c>
-      <c r="E22" t="n" s="202">
-        <v>0.7058818519261958</v>
-      </c>
-      <c r="F22" t="n" s="203">
-        <v>0.5143625246408465</v>
-      </c>
-      <c r="G22" t="n" s="204">
-        <v>3.8684210526315788</v>
-      </c>
-      <c r="H22" t="n" s="205">
-        <v>1.3187023234692454</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="209">
-        <v>36</v>
+      <c r="B25" t="n" s="224">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="C25" t="n" s="225">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="D25" t="n" s="226">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="227">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="228">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26"/>
-      <c r="B26" t="s" s="223">
-        <v>37</v>
-      </c>
-      <c r="C26" t="s" s="223">
-        <v>38</v>
-      </c>
-      <c r="D26" t="s" s="223">
-        <v>39</v>
-      </c>
-      <c r="E26" t="s" s="223">
-        <v>40</v>
-      </c>
-      <c r="F26" t="s" s="223">
-        <v>41</v>
-      </c>
-      <c r="G26" t="s" s="223">
-        <v>42</v>
-      </c>
-      <c r="H26" t="s" s="223">
-        <v>43</v>
+      <c r="A26" t="s" s="219">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="224">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="C26" t="n" s="225">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="D26" t="n" s="226">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="E26" t="n" s="227">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="F26" t="n" s="228">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="G26" t="n" s="229">
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="219">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B27" t="n" s="224">
-        <v>0.07894736842105263</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C27" t="n" s="225">
         <v>0.0</v>
       </c>
       <c r="D27" t="n" s="226">
-        <v>0.0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E27" t="n" s="227">
-        <v>0.34210526315789475</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="F27" t="n" s="228">
-        <v>0.4473684210526316</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="G27" t="n" s="229">
-        <v>0.13157894736842105</v>
-      </c>
-      <c r="H27" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="219">
-        <v>19</v>
-      </c>
-      <c r="B28" t="n" s="224">
-        <v>0.07894736842105263</v>
-      </c>
-      <c r="C28" t="n" s="225">
-        <v>0.0</v>
-      </c>
-      <c r="D28" t="n" s="226">
-        <v>0.0</v>
-      </c>
-      <c r="E28" t="n" s="227">
-        <v>0.23684210526315788</v>
-      </c>
-      <c r="F28" t="n" s="228">
-        <v>0.18421052631578946</v>
-      </c>
-      <c r="G28" t="n" s="229">
-        <v>0.5</v>
-      </c>
-      <c r="H28" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="219">
-        <v>20</v>
-      </c>
-      <c r="B29" t="n" s="224">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="C29" t="n" s="225">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="D29" t="n" s="226">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="E29" t="n" s="227">
-        <v>0.23684210526315788</v>
-      </c>
-      <c r="F29" t="n" s="228">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="G29" t="n" s="229">
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="H29" t="n" s="230">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="219">
-        <v>21</v>
-      </c>
-      <c r="B30" t="n" s="224">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="C30" t="n" s="225">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="D30" t="n" s="226">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="E30" t="n" s="227">
-        <v>0.34210526315789475</v>
-      </c>
-      <c r="F30" t="n" s="228">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="G30" t="n" s="229">
-        <v>0.5</v>
-      </c>
-      <c r="H30" t="n" s="230">
         <v>0.0</v>
       </c>
     </row>
@@ -5820,8 +5799,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="232">
-        <v>45</v>
+      <c r="A1" t="s" s="231">
+        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -5835,66 +5814,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="246">
+      <c r="A4" t="s" s="245">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="260">
+      <c r="A5" t="s" s="259">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="260">
+      <c r="B5" t="s" s="259">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="260">
+      <c r="C5" t="s" s="259">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="260">
+      <c r="D5" t="s" s="259">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="260">
+      <c r="E5" t="s" s="259">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="260">
+      <c r="F5" t="s" s="259">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="260">
+      <c r="G5" t="s" s="259">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="260">
+      <c r="H5" t="s" s="259">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="260">
+      <c r="I5" t="s" s="259">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="261">
-        <v>0.6594508975712776</v>
-      </c>
-      <c r="B6" t="n" s="262">
-        <v>0.6610872306871134</v>
-      </c>
-      <c r="C6" t="n" s="263">
-        <v>0.4937492910956215</v>
-      </c>
-      <c r="D6" t="n" s="264">
-        <v>0.4937492910956216</v>
-      </c>
-      <c r="E6" t="n" s="265">
-        <v>1.9506117518894455</v>
-      </c>
-      <c r="F6" t="n" s="266">
-        <v>0.10995012528546275</v>
-      </c>
-      <c r="G6" t="n" s="267">
-        <v>2.3684210526315788</v>
-      </c>
-      <c r="H6" t="n" s="268">
-        <v>1.160639447042575</v>
-      </c>
-      <c r="I6" t="n" s="269">
-        <v>0.4937492910956216</v>
+      <c r="A6" t="n" s="260">
+        <v>0.6454326923076923</v>
+      </c>
+      <c r="B6" t="n" s="261">
+        <v>0.8018951909568885</v>
+      </c>
+      <c r="C6" t="n" s="262">
+        <v>0.7381730451999069</v>
+      </c>
+      <c r="D6" t="n" s="263">
+        <v>0.5743372489125537</v>
+      </c>
+      <c r="E6" t="n" s="264">
+        <v>4.04783303762394</v>
+      </c>
+      <c r="F6" t="n" s="265">
+        <v>0.07215048389921044</v>
+      </c>
+      <c r="G6" t="n" s="266">
+        <v>1.8771929824561404</v>
+      </c>
+      <c r="H6" t="n" s="267">
+        <v>0.8504408064967417</v>
+      </c>
+      <c r="I6" t="n" s="268">
+        <v>0.5813827753089088</v>
       </c>
     </row>
     <row r="7">
@@ -5908,86 +5887,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="273">
+      <c r="A9" t="s" s="272">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="287">
+      <c r="B10" t="s" s="286">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="287">
+      <c r="C10" t="s" s="286">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="287">
+      <c r="D10" t="s" s="286">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="287">
+      <c r="E10" t="s" s="286">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="287">
+      <c r="F10" t="s" s="286">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="287">
+      <c r="G10" t="s" s="286">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="287">
+      <c r="H10" t="s" s="286">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="287">
+      <c r="I10" t="s" s="286">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="283">
+      <c r="A11" t="s" s="282">
         <v>24</v>
       </c>
-      <c r="B11" t="n" s="288">
+      <c r="B11" t="n" s="287">
+        <v>0.6594508975712776</v>
+      </c>
+      <c r="C11" t="n" s="288">
+        <v>0.6610872306871134</v>
+      </c>
+      <c r="D11" t="n" s="289">
+        <v>0.4937492910956215</v>
+      </c>
+      <c r="E11" t="n" s="290">
         <v>0.4937492910956216</v>
       </c>
-      <c r="C11" t="n" s="289">
+      <c r="F11" t="n" s="291">
+        <v>1.9506117518894455</v>
+      </c>
+      <c r="G11" t="n" s="292">
+        <v>0.10995012528546275</v>
+      </c>
+      <c r="H11" s="293"/>
+      <c r="I11" t="n" s="294">
         <v>0.4937492910956216</v>
       </c>
-      <c r="D11" t="n" s="290">
-        <v>0.24378836245742874</v>
-      </c>
-      <c r="E11" t="n" s="291">
-        <v>0.4937492910956216</v>
-      </c>
-      <c r="F11" s="292"/>
-      <c r="G11" s="293"/>
-      <c r="H11" t="n" s="294">
-        <v>0.4937492910956216</v>
-      </c>
-      <c r="I11" t="n" s="295">
-        <v>0.4937492910956216</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="283">
+      <c r="A12" t="s" s="282">
         <v>25</v>
       </c>
-      <c r="B12" t="n" s="288">
-        <v>0.24378836245742874</v>
-      </c>
-      <c r="C12" t="n" s="289">
-        <v>0.4937492910956216</v>
-      </c>
-      <c r="D12" s="290"/>
-      <c r="E12" s="291"/>
-      <c r="F12" s="292"/>
-      <c r="G12" s="293"/>
-      <c r="H12" t="n" s="294">
-        <v>0.24378836245742874</v>
-      </c>
-      <c r="I12" t="n" s="295">
-        <v>0.4937492910956216</v>
+      <c r="B12" t="n" s="287">
+        <v>0.39500693481275984</v>
+      </c>
+      <c r="C12" t="n" s="288">
+        <v>0.7352840620074932</v>
+      </c>
+      <c r="D12" t="n" s="289">
+        <v>0.5813827753089087</v>
+      </c>
+      <c r="E12" t="n" s="290">
+        <v>0.5813827753089087</v>
+      </c>
+      <c r="F12" t="n" s="291">
+        <v>2.7776342731139474</v>
+      </c>
+      <c r="G12" t="n" s="292">
+        <v>0.06975141279832392</v>
+      </c>
+      <c r="H12" s="293"/>
+      <c r="I12" t="n" s="294">
+        <v>0.5813827753089088</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="282">
+        <v>26</v>
+      </c>
+      <c r="B13" t="n" s="287">
+        <v>0.4571428571428571</v>
+      </c>
+      <c r="C13" t="n" s="288">
+        <v>0.7863191567507615</v>
+      </c>
+      <c r="D13" t="n" s="289">
+        <v>0.647879680333131</v>
+      </c>
+      <c r="E13" t="n" s="290">
+        <v>0.6478796803331308</v>
+      </c>
+      <c r="F13" t="n" s="291">
+        <v>3.679876702066333</v>
+      </c>
+      <c r="G13" t="n" s="292">
+        <v>0.06424167442573583</v>
+      </c>
+      <c r="H13" s="293"/>
+      <c r="I13" t="n" s="294">
+        <v>0.6478796803331307</v>
       </c>
     </row>
     <row r="14">
@@ -5996,174 +6005,231 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="299">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="313">
+      <c r="A16" t="s" s="298">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="313">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="312">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="313">
+      <c r="C17" t="s" s="312">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="313">
+      <c r="D17" t="s" s="312">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="313">
+      <c r="E17" t="s" s="312">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="313">
+      <c r="F17" t="s" s="312">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="312">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="313">
+      <c r="H17" t="s" s="312">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="309">
+    <row r="18">
+      <c r="A18" t="s" s="308">
         <v>24</v>
       </c>
-      <c r="B17" t="n" s="314">
+      <c r="B18" t="n" s="313">
         <v>38.0</v>
       </c>
-      <c r="C17" t="n" s="315">
-        <v>0.8513549449267358</v>
-      </c>
-      <c r="D17" t="n" s="316">
-        <v>0.8642190958014123</v>
-      </c>
-      <c r="E17" t="n" s="317">
-        <v>0.6072633915991686</v>
-      </c>
-      <c r="F17" t="n" s="318">
-        <v>0.4937492910956216</v>
-      </c>
-      <c r="G17" t="n" s="319">
+      <c r="C18" t="n" s="314">
+        <v>0.7672666203082492</v>
+      </c>
+      <c r="D18" t="n" s="315">
+        <v>0.8780419384170128</v>
+      </c>
+      <c r="E18" t="n" s="316">
+        <v>0.7974117539675531</v>
+      </c>
+      <c r="F18" t="n" s="317">
+        <v>0.7093213945719988</v>
+      </c>
+      <c r="G18" t="n" s="318">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="H18" t="n" s="319">
+        <v>0.31101174777590485</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="308">
+        <v>25</v>
+      </c>
+      <c r="B19" t="n" s="313">
+        <v>38.0</v>
+      </c>
+      <c r="C19" t="n" s="314">
+        <v>0.8535692863144623</v>
+      </c>
+      <c r="D19" t="n" s="315">
+        <v>0.8435256461993205</v>
+      </c>
+      <c r="E19" t="n" s="316">
+        <v>0.7252784169655196</v>
+      </c>
+      <c r="F19" t="n" s="317">
+        <v>0.5576274734416053</v>
+      </c>
+      <c r="G19" t="n" s="318">
         <v>2.3947368421052633</v>
       </c>
-      <c r="H17" t="n" s="320">
+      <c r="H19" t="n" s="319">
         <v>1.2848277555021441</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s" s="309">
+    <row r="20">
+      <c r="A20" t="s" s="308">
+        <v>26</v>
+      </c>
+      <c r="B20" t="n" s="313">
+        <v>38.0</v>
+      </c>
+      <c r="C20" t="n" s="314">
+        <v>0.8683789202087454</v>
+      </c>
+      <c r="D20" t="n" s="315">
+        <v>0.8173344405660724</v>
+      </c>
+      <c r="E20" t="n" s="316">
+        <v>0.6586582174746161</v>
+      </c>
+      <c r="F20" t="n" s="317">
+        <v>0.5416290323975095</v>
+      </c>
+      <c r="G20" t="n" s="318">
+        <v>2.3421052631578947</v>
+      </c>
+      <c r="H20" t="n" s="319">
+        <v>1.4003149412064935</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="323">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="337">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s" s="337">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="337">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s" s="337">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="337">
+        <v>42</v>
+      </c>
+      <c r="G24" t="s" s="337">
+        <v>43</v>
+      </c>
+      <c r="H24" t="s" s="337">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="333">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n" s="338">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="C25" t="n" s="339">
+        <v>0.8947368421052632</v>
+      </c>
+      <c r="D25" t="n" s="340">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="341">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="342">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="343">
+        <v>0.0</v>
+      </c>
+      <c r="H25" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="333">
         <v>25</v>
       </c>
-      <c r="B18" t="n" s="314">
-        <v>38.0</v>
-      </c>
-      <c r="C18" t="n" s="315">
-        <v>0.8765416942575354</v>
-      </c>
-      <c r="D18" t="n" s="316">
-        <v>0.8642190958014123</v>
-      </c>
-      <c r="E18" t="n" s="317">
-        <v>0.6072633915991686</v>
-      </c>
-      <c r="F18" t="n" s="318">
-        <v>0.4937492910956216</v>
-      </c>
-      <c r="G18" t="n" s="319">
-        <v>2.3421052631578947</v>
-      </c>
-      <c r="H18" t="n" s="320">
-        <v>1.4003149412064935</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="324">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="338">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="338">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s" s="338">
-        <v>39</v>
-      </c>
-      <c r="E22" t="s" s="338">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="338">
-        <v>41</v>
-      </c>
-      <c r="G22" t="s" s="338">
-        <v>42</v>
-      </c>
-      <c r="H22" t="s" s="338">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="334">
-        <v>24</v>
-      </c>
-      <c r="B23" t="n" s="339">
+      <c r="B26" t="n" s="338">
         <v>0.10526315789473684</v>
       </c>
-      <c r="C23" t="n" s="340">
+      <c r="C26" t="n" s="339">
         <v>0.18421052631578946</v>
       </c>
-      <c r="D23" t="n" s="341">
+      <c r="D26" t="n" s="340">
         <v>0.07894736842105263</v>
       </c>
-      <c r="E23" t="n" s="342">
+      <c r="E26" t="n" s="341">
         <v>0.5</v>
       </c>
-      <c r="F23" t="n" s="343">
+      <c r="F26" t="n" s="342">
         <v>0.10526315789473684</v>
       </c>
-      <c r="G23" t="n" s="344">
+      <c r="G26" t="n" s="343">
         <v>0.02631578947368421</v>
       </c>
-      <c r="H23" t="n" s="345">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="334">
-        <v>25</v>
-      </c>
-      <c r="B24" t="n" s="339">
+      <c r="H26" t="n" s="344">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="333">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n" s="338">
         <v>0.10526315789473684</v>
       </c>
-      <c r="C24" t="n" s="340">
+      <c r="C27" t="n" s="339">
         <v>0.15789473684210525</v>
       </c>
-      <c r="D24" t="n" s="341">
+      <c r="D27" t="n" s="340">
         <v>0.2894736842105263</v>
       </c>
-      <c r="E24" t="n" s="342">
+      <c r="E27" t="n" s="341">
         <v>0.2894736842105263</v>
       </c>
-      <c r="F24" t="n" s="343">
+      <c r="F27" t="n" s="342">
         <v>0.05263157894736842</v>
       </c>
-      <c r="G24" t="n" s="344">
+      <c r="G27" t="n" s="343">
         <v>0.10526315789473684</v>
       </c>
-      <c r="H24" t="n" s="345">
+      <c r="H27" t="n" s="344">
         <v>0.0</v>
       </c>
     </row>
@@ -6193,8 +6259,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="347">
-        <v>46</v>
+      <c r="A1" t="s" s="346">
+        <v>47</v>
       </c>
     </row>
     <row r="2">
@@ -6208,66 +6274,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="361">
+      <c r="A4" t="s" s="360">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="375">
+      <c r="A5" t="s" s="374">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="375">
+      <c r="B5" t="s" s="374">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="375">
+      <c r="C5" t="s" s="374">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="375">
+      <c r="D5" t="s" s="374">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="375">
+      <c r="E5" t="s" s="374">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="375">
+      <c r="F5" t="s" s="374">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="375">
+      <c r="G5" t="s" s="374">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="375">
+      <c r="H5" t="s" s="374">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="375">
+      <c r="I5" t="s" s="374">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="376">
-        <v>0.8835843516150421</v>
-      </c>
-      <c r="B6" t="n" s="377">
-        <v>0.8845219729357547</v>
-      </c>
-      <c r="C6" t="n" s="378">
-        <v>0.7929532913020896</v>
-      </c>
-      <c r="D6" t="n" s="379">
-        <v>0.7929532913020896</v>
-      </c>
-      <c r="E6" t="n" s="380">
-        <v>7.659656087158968</v>
-      </c>
-      <c r="F6" t="n" s="381">
-        <v>0.037577938006975925</v>
-      </c>
-      <c r="G6" t="n" s="382">
-        <v>2.1447368421052633</v>
-      </c>
-      <c r="H6" t="n" s="383">
-        <v>1.3700852939361214</v>
-      </c>
-      <c r="I6" t="n" s="384">
-        <v>0.7929532913020896</v>
+      <c r="A6" t="n" s="375">
+        <v>0.7879295892707461</v>
+      </c>
+      <c r="B6" t="n" s="376">
+        <v>0.9318271066173863</v>
+      </c>
+      <c r="C6" t="n" s="377">
+        <v>0.9021029978273092</v>
+      </c>
+      <c r="D6" t="n" s="378">
+        <v>0.8200207344192009</v>
+      </c>
+      <c r="E6" t="n" s="379">
+        <v>13.668586741472131</v>
+      </c>
+      <c r="F6" t="n" s="380">
+        <v>0.025165440187051368</v>
+      </c>
+      <c r="G6" t="n" s="381">
+        <v>2.780701754385965</v>
+      </c>
+      <c r="H6" t="n" s="382">
+        <v>0.9211440718682284</v>
+      </c>
+      <c r="I6" t="n" s="383">
+        <v>0.8177494038987605</v>
       </c>
     </row>
     <row r="7">
@@ -6281,86 +6347,116 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="388">
+      <c r="A9" t="s" s="387">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="402">
+      <c r="B10" t="s" s="401">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="402">
+      <c r="C10" t="s" s="401">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="402">
+      <c r="D10" t="s" s="401">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="402">
+      <c r="E10" t="s" s="401">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="402">
+      <c r="F10" t="s" s="401">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="402">
+      <c r="G10" t="s" s="401">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="402">
+      <c r="H10" t="s" s="401">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="402">
+      <c r="I10" t="s" s="401">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="398">
-        <v>28</v>
-      </c>
-      <c r="B11" t="n" s="403">
-        <v>0.7929532913020896</v>
-      </c>
-      <c r="C11" t="n" s="404">
-        <v>0.7929532913020896</v>
-      </c>
-      <c r="D11" t="n" s="405">
-        <v>0.6287749221868165</v>
-      </c>
-      <c r="E11" t="n" s="406">
-        <v>0.7929532913020896</v>
-      </c>
-      <c r="F11" s="407"/>
-      <c r="G11" s="408"/>
-      <c r="H11" t="n" s="409">
-        <v>0.7929532913020896</v>
-      </c>
-      <c r="I11" t="n" s="410">
-        <v>0.7929532913020896</v>
+      <c r="A11" t="s" s="397">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n" s="402">
+        <v>0.8832214765100672</v>
+      </c>
+      <c r="C11" t="n" s="403">
+        <v>0.8892575793608841</v>
+      </c>
+      <c r="D11" t="n" s="404">
+        <v>0.800597476820242</v>
+      </c>
+      <c r="E11" t="n" s="405">
+        <v>0.800597476820242</v>
+      </c>
+      <c r="F11" t="n" s="406">
+        <v>8.029963353056639</v>
+      </c>
+      <c r="G11" t="n" s="407">
+        <v>0.03664533859120948</v>
+      </c>
+      <c r="H11" s="408"/>
+      <c r="I11" t="n" s="409">
+        <v>0.800597476820242</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="398">
-        <v>29</v>
-      </c>
-      <c r="B12" t="n" s="403">
-        <v>0.6287749221868165</v>
-      </c>
-      <c r="C12" t="n" s="404">
-        <v>0.7929532913020896</v>
-      </c>
-      <c r="D12" s="405"/>
-      <c r="E12" s="406"/>
-      <c r="F12" s="407"/>
-      <c r="G12" s="408"/>
-      <c r="H12" t="n" s="409">
-        <v>0.6287749221868165</v>
-      </c>
-      <c r="I12" t="n" s="410">
-        <v>0.7929532913020896</v>
+      <c r="A12" t="s" s="397">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n" s="402">
+        <v>0.4628439187451787</v>
+      </c>
+      <c r="C12" t="n" s="403">
+        <v>0.8997383271256516</v>
+      </c>
+      <c r="D12" t="n" s="404">
+        <v>0.8177494038987606</v>
+      </c>
+      <c r="E12" t="n" s="405">
+        <v>0.8177494038987605</v>
+      </c>
+      <c r="F12" t="n" s="406">
+        <v>8.973901006551483</v>
+      </c>
+      <c r="G12" t="n" s="407">
+        <v>0.038732386778427906</v>
+      </c>
+      <c r="H12" s="408"/>
+      <c r="I12" t="n" s="409">
+        <v>0.8177494038987605</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>1</v>
+      <c r="A13" t="s" s="397">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n" s="402">
+        <v>0.5271214642262896</v>
+      </c>
+      <c r="C13" t="n" s="403">
+        <v>0.9140558393990976</v>
+      </c>
+      <c r="D13" t="n" s="404">
+        <v>0.8417153225385998</v>
+      </c>
+      <c r="E13" t="n" s="405">
+        <v>0.8417153225385998</v>
+      </c>
+      <c r="F13" t="n" s="406">
+        <v>10.635461827868504</v>
+      </c>
+      <c r="G13" t="n" s="407">
+        <v>0.037718912147010994</v>
+      </c>
+      <c r="H13" s="408"/>
+      <c r="I13" t="n" s="409">
+        <v>0.8417153225385999</v>
       </c>
     </row>
     <row r="14">
@@ -6369,165 +6465,219 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="414">
-        <v>30</v>
+      <c r="A15" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16"/>
-      <c r="B16" t="s" s="428">
+      <c r="A16" t="s" s="413">
         <v>31</v>
       </c>
-      <c r="C16" t="s" s="428">
+    </row>
+    <row r="17">
+      <c r="A17"/>
+      <c r="B17" t="s" s="427">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="428">
+      <c r="C17" t="s" s="427">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="428">
+      <c r="D17" t="s" s="427">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="428">
+      <c r="E17" t="s" s="427">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="428">
+      <c r="F17" t="s" s="427">
+        <v>36</v>
+      </c>
+      <c r="G17" t="s" s="427">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="428">
+      <c r="H17" t="s" s="427">
         <v>10</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>28</v>
-      </c>
-      <c r="B17" t="n" s="429">
+    <row r="18">
+      <c r="A18" t="s" s="423">
+        <v>18</v>
+      </c>
+      <c r="B18" t="n" s="428">
         <v>38.0</v>
       </c>
-      <c r="C17" t="n" s="430">
-        <v>0.9501430801077119</v>
-      </c>
-      <c r="D17" t="n" s="431">
-        <v>0.9468245062581792</v>
-      </c>
-      <c r="E17" t="n" s="432">
-        <v>0.8431275744182803</v>
-      </c>
-      <c r="F17" t="n" s="433">
-        <v>0.7929532913020895</v>
-      </c>
-      <c r="G17" t="n" s="434">
-        <v>2.210526315789474</v>
-      </c>
-      <c r="H17" t="n" s="435">
-        <v>1.491559944104269</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="424">
-        <v>29</v>
-      </c>
-      <c r="B18" t="n" s="429">
+      <c r="C18" t="n" s="429">
+        <v>0.8956624989461827</v>
+      </c>
+      <c r="D18" t="n" s="430">
+        <v>0.9449922194421911</v>
+      </c>
+      <c r="E18" t="n" s="431">
+        <v>0.9074557919699197</v>
+      </c>
+      <c r="F18" t="n" s="432">
+        <v>0.873186382333912</v>
+      </c>
+      <c r="G18" t="n" s="433">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H18" t="n" s="434">
+        <v>0.2732763127330939</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="423">
+        <v>19</v>
+      </c>
+      <c r="B19" t="n" s="428">
         <v>38.0</v>
       </c>
-      <c r="C18" t="n" s="430">
-        <v>0.9434020268960891</v>
-      </c>
-      <c r="D18" t="n" s="431">
-        <v>0.9468245062581792</v>
-      </c>
-      <c r="E18" t="n" s="432">
-        <v>0.8431275744182806</v>
-      </c>
-      <c r="F18" t="n" s="433">
-        <v>0.7929532913020896</v>
-      </c>
-      <c r="G18" t="n" s="434">
-        <v>2.0789473684210527</v>
-      </c>
-      <c r="H18" t="n" s="435">
-        <v>1.4023451197878813</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
+      <c r="C19" t="n" s="429">
+        <v>0.9412550286218286</v>
+      </c>
+      <c r="D19" t="n" s="430">
+        <v>0.9388975954088231</v>
+      </c>
+      <c r="E19" t="n" s="431">
+        <v>0.8937082349382017</v>
+      </c>
+      <c r="F19" t="n" s="432">
+        <v>0.827740244837869</v>
+      </c>
+      <c r="G19" t="n" s="433">
+        <v>3.473684210526316</v>
+      </c>
+      <c r="H19" t="n" s="434">
+        <v>1.224454475448825</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="423">
+        <v>20</v>
+      </c>
+      <c r="B20" t="n" s="428">
+        <v>38.0</v>
+      </c>
+      <c r="C20" t="n" s="429">
+        <v>0.953875753470882</v>
+      </c>
+      <c r="D20" t="n" s="430">
+        <v>0.9303817439213805</v>
+      </c>
+      <c r="E20" t="n" s="431">
+        <v>0.8718058513887896</v>
+      </c>
+      <c r="F20" t="n" s="432">
+        <v>0.8234035769796145</v>
+      </c>
+      <c r="G20" t="n" s="433">
+        <v>3.9473684210526314</v>
+      </c>
+      <c r="H20" t="n" s="434">
+        <v>1.4322042814629075</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="s">
+    <row r="22">
+      <c r="A22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="s" s="439">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22"/>
-      <c r="B22" t="s" s="453">
+    <row r="23">
+      <c r="A23" t="s" s="438">
         <v>37</v>
       </c>
-      <c r="C22" t="s" s="453">
+    </row>
+    <row r="24">
+      <c r="A24"/>
+      <c r="B24" t="s" s="452">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="453">
+      <c r="C24" t="s" s="452">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="453">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="453">
+      <c r="D24" t="s" s="452">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="453">
+      <c r="E24" t="s" s="452">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="452">
         <v>43</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="449">
-        <v>28</v>
-      </c>
-      <c r="B23" t="n" s="454">
+      <c r="G24" t="s" s="452">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="448">
+        <v>18</v>
+      </c>
+      <c r="B25" t="n" s="453">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="C25" t="n" s="454">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="D25" t="n" s="455">
+        <v>0.0</v>
+      </c>
+      <c r="E25" t="n" s="456">
+        <v>0.0</v>
+      </c>
+      <c r="F25" t="n" s="457">
+        <v>0.0</v>
+      </c>
+      <c r="G25" t="n" s="458">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="448">
+        <v>19</v>
+      </c>
+      <c r="B26" t="n" s="453">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="C26" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="D26" t="n" s="455">
+        <v>0.34210526315789475</v>
+      </c>
+      <c r="E26" t="n" s="456">
+        <v>0.4473684210526316</v>
+      </c>
+      <c r="F26" t="n" s="457">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="G26" t="n" s="458">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="448">
+        <v>20</v>
+      </c>
+      <c r="B27" t="n" s="453">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="C27" t="n" s="454">
+        <v>0.0</v>
+      </c>
+      <c r="D27" t="n" s="455">
         <v>0.23684210526315788</v>
       </c>
-      <c r="C23" t="n" s="455">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="D23" t="n" s="456">
-        <v>0.2894736842105263</v>
-      </c>
-      <c r="E23" t="n" s="457">
+      <c r="E27" t="n" s="456">
         <v>0.18421052631578946</v>
       </c>
-      <c r="F23" t="n" s="458">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="G23" t="n" s="459">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="449">
-        <v>29</v>
-      </c>
-      <c r="B24" t="n" s="454">
-        <v>0.23684210526315788</v>
-      </c>
-      <c r="C24" t="n" s="455">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="D24" t="n" s="456">
-        <v>0.34210526315789475</v>
-      </c>
-      <c r="E24" t="n" s="457">
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="F24" t="n" s="458">
-        <v>0.18421052631578946</v>
-      </c>
-      <c r="G24" t="n" s="459">
+      <c r="F27" t="n" s="457">
+        <v>0.5</v>
+      </c>
+      <c r="G27" t="n" s="458">
         <v>0.0</v>
       </c>
     </row>
@@ -6557,8 +6707,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="461">
-        <v>47</v>
+      <c r="A1" t="s" s="460">
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -6572,66 +6722,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="475">
+      <c r="A4" t="s" s="474">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="489">
+      <c r="A5" t="s" s="488">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="489">
+      <c r="B5" t="s" s="488">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="489">
+      <c r="C5" t="s" s="488">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="489">
+      <c r="D5" t="s" s="488">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="489">
+      <c r="E5" t="s" s="488">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="489">
+      <c r="F5" t="s" s="488">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="489">
+      <c r="G5" t="s" s="488">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="489">
+      <c r="H5" t="s" s="488">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="489">
+      <c r="I5" t="s" s="488">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="490">
-        <v>0.9786280077716336</v>
-      </c>
-      <c r="B6" t="n" s="491">
-        <v>0.9798127592494494</v>
-      </c>
-      <c r="C6" t="n" s="492">
-        <v>0.9604244398592969</v>
-      </c>
-      <c r="D6" t="n" s="493">
-        <v>0.9604244398592969</v>
-      </c>
-      <c r="E6" t="n" s="494">
-        <v>48.536239863425706</v>
-      </c>
-      <c r="F6" t="n" s="495">
-        <v>0.006730909210057253</v>
-      </c>
-      <c r="G6" t="n" s="496">
-        <v>1.605263157894737</v>
-      </c>
-      <c r="H6" t="n" s="497">
-        <v>2.1814881318532966</v>
-      </c>
-      <c r="I6" t="n" s="498">
-        <v>0.9604244398592969</v>
+      <c r="A6" t="n" s="489">
+        <v>0.6656678575544541</v>
+      </c>
+      <c r="B6" t="n" s="490">
+        <v>0.6690281069467323</v>
+      </c>
+      <c r="C6" t="n" s="491">
+        <v>0.5026613337506118</v>
+      </c>
+      <c r="D6" t="n" s="492">
+        <v>0.5026613337506118</v>
+      </c>
+      <c r="E6" t="n" s="493">
+        <v>2.0214045995714103</v>
+      </c>
+      <c r="F6" t="n" s="494">
+        <v>0.107383126281272</v>
+      </c>
+      <c r="G6" t="n" s="495">
+        <v>1.9342105263157894</v>
+      </c>
+      <c r="H6" t="n" s="496">
+        <v>1.2421159618123039</v>
+      </c>
+      <c r="I6" t="n" s="497">
+        <v>0.5026613337506118</v>
       </c>
     </row>
     <row r="7">
@@ -6645,81 +6795,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="502">
+      <c r="A9" t="s" s="501">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="516">
+      <c r="B10" t="s" s="515">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="516">
+      <c r="C10" t="s" s="515">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="516">
+      <c r="D10" t="s" s="515">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="516">
+      <c r="E10" t="s" s="515">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="516">
+      <c r="F10" t="s" s="515">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="516">
+      <c r="G10" t="s" s="515">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="516">
+      <c r="H10" t="s" s="515">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="516">
+      <c r="I10" t="s" s="515">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="512">
-        <v>22</v>
-      </c>
-      <c r="B11" t="n" s="517">
-        <v>0.9604244398592968</v>
-      </c>
-      <c r="C11" t="n" s="518">
-        <v>0.9604244398592968</v>
-      </c>
-      <c r="D11" t="n" s="519">
-        <v>0.9224151046790444</v>
-      </c>
-      <c r="E11" t="n" s="520">
-        <v>0.9604244398592968</v>
-      </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="522"/>
-      <c r="H11" t="n" s="523">
-        <v>0.9604244398592968</v>
-      </c>
-      <c r="I11" t="n" s="524">
-        <v>0.9604244398592968</v>
+      <c r="A11" t="s" s="511">
+        <v>27</v>
+      </c>
+      <c r="B11" t="n" s="516">
+        <v>0.5026613337506117</v>
+      </c>
+      <c r="C11" t="n" s="517">
+        <v>0.5026613337506117</v>
+      </c>
+      <c r="D11" t="n" s="518">
+        <v>0.252668416447944</v>
+      </c>
+      <c r="E11" t="n" s="519">
+        <v>0.5026613337506117</v>
+      </c>
+      <c r="F11" s="520"/>
+      <c r="G11" s="521"/>
+      <c r="H11" t="n" s="522">
+        <v>0.5026613337506117</v>
+      </c>
+      <c r="I11" t="n" s="523">
+        <v>0.5026613337506117</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="512">
-        <v>23</v>
-      </c>
-      <c r="B12" t="n" s="517">
-        <v>0.9224151046790444</v>
-      </c>
-      <c r="C12" t="n" s="518">
-        <v>0.9604244398592968</v>
-      </c>
-      <c r="D12" s="519"/>
-      <c r="E12" s="520"/>
-      <c r="F12" s="521"/>
-      <c r="G12" s="522"/>
-      <c r="H12" t="n" s="523">
-        <v>0.9224151046790444</v>
-      </c>
-      <c r="I12" t="n" s="524">
-        <v>0.9604244398592968</v>
+      <c r="A12" t="s" s="511">
+        <v>28</v>
+      </c>
+      <c r="B12" t="n" s="516">
+        <v>0.252668416447944</v>
+      </c>
+      <c r="C12" t="n" s="517">
+        <v>0.5026613337506117</v>
+      </c>
+      <c r="D12" s="518"/>
+      <c r="E12" s="519"/>
+      <c r="F12" s="520"/>
+      <c r="G12" s="521"/>
+      <c r="H12" t="n" s="522">
+        <v>0.252668416447944</v>
+      </c>
+      <c r="I12" t="n" s="523">
+        <v>0.5026613337506117</v>
       </c>
     </row>
     <row r="13">
@@ -6733,84 +6883,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="528">
-        <v>30</v>
+      <c r="A15" t="s" s="527">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="542">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="542">
+      <c r="B16" t="s" s="541">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="542">
+      <c r="C16" t="s" s="541">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="542">
+      <c r="D16" t="s" s="541">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="542">
+      <c r="E16" t="s" s="541">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="542">
+      <c r="F16" t="s" s="541">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="541">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="542">
+      <c r="H16" t="s" s="541">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="538">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="543">
+      <c r="A17" t="s" s="537">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="542">
         <v>38.0</v>
       </c>
-      <c r="C17" t="n" s="544">
-        <v>0.9893567503315893</v>
-      </c>
-      <c r="D17" t="n" s="545">
-        <v>0.9900566751098892</v>
-      </c>
-      <c r="E17" t="n" s="546">
-        <v>0.9702678868586606</v>
-      </c>
-      <c r="F17" t="n" s="547">
-        <v>0.9604244398592968</v>
-      </c>
-      <c r="G17" t="n" s="548">
-        <v>1.5263157894736843</v>
-      </c>
-      <c r="H17" t="n" s="549">
-        <v>2.127513992779762</v>
+      <c r="C17" t="n" s="543">
+        <v>0.8838751008685763</v>
+      </c>
+      <c r="D17" t="n" s="544">
+        <v>0.866793324198627</v>
+      </c>
+      <c r="E17" t="n" s="545">
+        <v>0.6145444451781156</v>
+      </c>
+      <c r="F17" t="n" s="546">
+        <v>0.5026613337506116</v>
+      </c>
+      <c r="G17" t="n" s="547">
+        <v>1.5</v>
+      </c>
+      <c r="H17" t="n" s="548">
+        <v>1.5201351291285952</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="538">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="543">
+      <c r="A18" t="s" s="537">
+        <v>28</v>
+      </c>
+      <c r="B18" t="n" s="542">
         <v>38.0</v>
       </c>
-      <c r="C18" t="n" s="544">
-        <v>0.9907329110425879</v>
-      </c>
-      <c r="D18" t="n" s="545">
-        <v>0.990056675109889</v>
-      </c>
-      <c r="E18" t="n" s="546">
-        <v>0.9702678868586606</v>
-      </c>
-      <c r="F18" t="n" s="547">
-        <v>0.9604244398592968</v>
-      </c>
-      <c r="G18" t="n" s="548">
-        <v>1.6842105263157894</v>
-      </c>
-      <c r="H18" t="n" s="549">
-        <v>2.279227739743427</v>
+      <c r="C18" t="n" s="543">
+        <v>0.8486286169847476</v>
+      </c>
+      <c r="D18" t="n" s="544">
+        <v>0.866793324198627</v>
+      </c>
+      <c r="E18" t="n" s="545">
+        <v>0.6145444451781155</v>
+      </c>
+      <c r="F18" t="n" s="546">
+        <v>0.5026613337506116</v>
+      </c>
+      <c r="G18" t="n" s="547">
+        <v>2.3684210526315788</v>
+      </c>
+      <c r="H18" t="n" s="548">
+        <v>1.3440771501259718</v>
       </c>
     </row>
     <row r="19">
@@ -6824,74 +6974,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="553">
-        <v>36</v>
+      <c r="A21" t="s" s="552">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="567">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="567">
+      <c r="B22" t="s" s="566">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="567">
+      <c r="C22" t="s" s="566">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s" s="566">
         <v>40</v>
       </c>
-      <c r="E22" t="s" s="567">
+      <c r="E22" t="s" s="566">
         <v>41</v>
       </c>
-      <c r="F22" t="s" s="567">
+      <c r="F22" t="s" s="566">
         <v>42</v>
       </c>
-      <c r="G22" t="s" s="567">
-        <v>43</v>
+      <c r="G22" t="s" s="566">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="563">
-        <v>22</v>
-      </c>
-      <c r="B23" t="n" s="568">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="C23" t="n" s="569">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="D23" t="n" s="570">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="E23" t="n" s="571">
+      <c r="A23" t="s" s="562">
+        <v>27</v>
+      </c>
+      <c r="B23" t="n" s="567">
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="C23" t="n" s="568">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="D23" t="n" s="569">
+        <v>0.0</v>
+      </c>
+      <c r="E23" t="n" s="570">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="F23" t="n" s="571">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="G23" t="n" s="572">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="562">
+        <v>28</v>
+      </c>
+      <c r="B24" t="n" s="567">
         <v>0.15789473684210525</v>
       </c>
-      <c r="F23" t="n" s="572">
+      <c r="C24" t="n" s="568">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="D24" t="n" s="569">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="E24" t="n" s="570">
+        <v>0.5</v>
+      </c>
+      <c r="F24" t="n" s="571">
         <v>0.15789473684210525</v>
       </c>
-      <c r="G23" t="n" s="573">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="563">
-        <v>23</v>
-      </c>
-      <c r="B24" t="n" s="568">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="C24" t="n" s="569">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="570">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="E24" t="n" s="571">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="F24" t="n" s="572">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="G24" t="n" s="573">
+      <c r="G24" t="n" s="572">
         <v>0.0</v>
       </c>
     </row>
@@ -6921,8 +7071,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="575">
-        <v>48</v>
+      <c r="A1" t="s" s="574">
+        <v>49</v>
       </c>
     </row>
     <row r="2">
@@ -6936,66 +7086,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="589">
+      <c r="A4" t="s" s="588">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="603">
+      <c r="A5" t="s" s="602">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="603">
+      <c r="B5" t="s" s="602">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="603">
+      <c r="C5" t="s" s="602">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="603">
+      <c r="D5" t="s" s="602">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="603">
+      <c r="E5" t="s" s="602">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="603">
+      <c r="F5" t="s" s="602">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="603">
+      <c r="G5" t="s" s="602">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="603">
+      <c r="H5" t="s" s="602">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="603">
+      <c r="I5" t="s" s="602">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="604">
-        <v>0.6656678575544541</v>
-      </c>
-      <c r="B6" t="n" s="605">
-        <v>0.6690281069467323</v>
-      </c>
-      <c r="C6" t="n" s="606">
-        <v>0.5026613337506118</v>
-      </c>
-      <c r="D6" t="n" s="607">
-        <v>0.5026613337506118</v>
-      </c>
-      <c r="E6" t="n" s="608">
-        <v>2.0214045995714103</v>
-      </c>
-      <c r="F6" t="n" s="609">
-        <v>0.107383126281272</v>
-      </c>
-      <c r="G6" t="n" s="610">
-        <v>1.9342105263157894</v>
-      </c>
-      <c r="H6" t="n" s="611">
-        <v>1.2421159618123039</v>
-      </c>
-      <c r="I6" t="n" s="612">
-        <v>0.5026613337506118</v>
+      <c r="A6" t="n" s="603">
+        <v>0.8835843516150421</v>
+      </c>
+      <c r="B6" t="n" s="604">
+        <v>0.8845219729357547</v>
+      </c>
+      <c r="C6" t="n" s="605">
+        <v>0.7929532913020896</v>
+      </c>
+      <c r="D6" t="n" s="606">
+        <v>0.7929532913020896</v>
+      </c>
+      <c r="E6" t="n" s="607">
+        <v>7.659656087158968</v>
+      </c>
+      <c r="F6" t="n" s="608">
+        <v>0.037577938006975925</v>
+      </c>
+      <c r="G6" t="n" s="609">
+        <v>2.1447368421052633</v>
+      </c>
+      <c r="H6" t="n" s="610">
+        <v>1.3700852939361214</v>
+      </c>
+      <c r="I6" t="n" s="611">
+        <v>0.7929532913020896</v>
       </c>
     </row>
     <row r="7">
@@ -7009,81 +7159,81 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="616">
+      <c r="A9" t="s" s="615">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="630">
+      <c r="B10" t="s" s="629">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="630">
+      <c r="C10" t="s" s="629">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="630">
+      <c r="D10" t="s" s="629">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="630">
+      <c r="E10" t="s" s="629">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="630">
+      <c r="F10" t="s" s="629">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="630">
+      <c r="G10" t="s" s="629">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="630">
+      <c r="H10" t="s" s="629">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="630">
+      <c r="I10" t="s" s="629">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="626">
-        <v>26</v>
-      </c>
-      <c r="B11" t="n" s="631">
-        <v>0.5026613337506117</v>
-      </c>
-      <c r="C11" t="n" s="632">
-        <v>0.5026613337506117</v>
-      </c>
-      <c r="D11" t="n" s="633">
-        <v>0.252668416447944</v>
-      </c>
-      <c r="E11" t="n" s="634">
-        <v>0.5026613337506117</v>
-      </c>
-      <c r="F11" s="635"/>
-      <c r="G11" s="636"/>
-      <c r="H11" t="n" s="637">
-        <v>0.5026613337506117</v>
-      </c>
-      <c r="I11" t="n" s="638">
-        <v>0.5026613337506117</v>
+      <c r="A11" t="s" s="625">
+        <v>29</v>
+      </c>
+      <c r="B11" t="n" s="630">
+        <v>0.7929532913020896</v>
+      </c>
+      <c r="C11" t="n" s="631">
+        <v>0.7929532913020896</v>
+      </c>
+      <c r="D11" t="n" s="632">
+        <v>0.6287749221868165</v>
+      </c>
+      <c r="E11" t="n" s="633">
+        <v>0.7929532913020896</v>
+      </c>
+      <c r="F11" s="634"/>
+      <c r="G11" s="635"/>
+      <c r="H11" t="n" s="636">
+        <v>0.7929532913020896</v>
+      </c>
+      <c r="I11" t="n" s="637">
+        <v>0.7929532913020896</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="626">
-        <v>27</v>
-      </c>
-      <c r="B12" t="n" s="631">
-        <v>0.252668416447944</v>
-      </c>
-      <c r="C12" t="n" s="632">
-        <v>0.5026613337506117</v>
-      </c>
-      <c r="D12" s="633"/>
-      <c r="E12" s="634"/>
-      <c r="F12" s="635"/>
-      <c r="G12" s="636"/>
-      <c r="H12" t="n" s="637">
-        <v>0.252668416447944</v>
-      </c>
-      <c r="I12" t="n" s="638">
-        <v>0.5026613337506117</v>
+      <c r="A12" t="s" s="625">
+        <v>30</v>
+      </c>
+      <c r="B12" t="n" s="630">
+        <v>0.6287749221868165</v>
+      </c>
+      <c r="C12" t="n" s="631">
+        <v>0.7929532913020896</v>
+      </c>
+      <c r="D12" s="632"/>
+      <c r="E12" s="633"/>
+      <c r="F12" s="634"/>
+      <c r="G12" s="635"/>
+      <c r="H12" t="n" s="636">
+        <v>0.6287749221868165</v>
+      </c>
+      <c r="I12" t="n" s="637">
+        <v>0.7929532913020896</v>
       </c>
     </row>
     <row r="13">
@@ -7097,84 +7247,84 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="642">
-        <v>30</v>
+      <c r="A15" t="s" s="641">
+        <v>31</v>
       </c>
     </row>
     <row r="16">
       <c r="A16"/>
-      <c r="B16" t="s" s="656">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s" s="656">
+      <c r="B16" t="s" s="655">
         <v>32</v>
       </c>
-      <c r="D16" t="s" s="656">
+      <c r="C16" t="s" s="655">
         <v>33</v>
       </c>
-      <c r="E16" t="s" s="656">
+      <c r="D16" t="s" s="655">
         <v>34</v>
       </c>
-      <c r="F16" t="s" s="656">
+      <c r="E16" t="s" s="655">
         <v>35</v>
       </c>
-      <c r="G16" t="s" s="656">
+      <c r="F16" t="s" s="655">
+        <v>36</v>
+      </c>
+      <c r="G16" t="s" s="655">
         <v>9</v>
       </c>
-      <c r="H16" t="s" s="656">
+      <c r="H16" t="s" s="655">
         <v>10</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="652">
-        <v>26</v>
-      </c>
-      <c r="B17" t="n" s="657">
+      <c r="A17" t="s" s="651">
+        <v>29</v>
+      </c>
+      <c r="B17" t="n" s="656">
         <v>38.0</v>
       </c>
-      <c r="C17" t="n" s="658">
-        <v>0.8838751008685763</v>
-      </c>
-      <c r="D17" t="n" s="659">
-        <v>0.866793324198627</v>
-      </c>
-      <c r="E17" t="n" s="660">
-        <v>0.6145444451781156</v>
-      </c>
-      <c r="F17" t="n" s="661">
-        <v>0.5026613337506116</v>
-      </c>
-      <c r="G17" t="n" s="662">
-        <v>1.5</v>
-      </c>
-      <c r="H17" t="n" s="663">
-        <v>1.5201351291285952</v>
+      <c r="C17" t="n" s="657">
+        <v>0.9501430801077119</v>
+      </c>
+      <c r="D17" t="n" s="658">
+        <v>0.9468245062581792</v>
+      </c>
+      <c r="E17" t="n" s="659">
+        <v>0.8431275744182803</v>
+      </c>
+      <c r="F17" t="n" s="660">
+        <v>0.7929532913020895</v>
+      </c>
+      <c r="G17" t="n" s="661">
+        <v>2.210526315789474</v>
+      </c>
+      <c r="H17" t="n" s="662">
+        <v>1.491559944104269</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="652">
-        <v>27</v>
-      </c>
-      <c r="B18" t="n" s="657">
+      <c r="A18" t="s" s="651">
+        <v>30</v>
+      </c>
+      <c r="B18" t="n" s="656">
         <v>38.0</v>
       </c>
-      <c r="C18" t="n" s="658">
-        <v>0.8486286169847476</v>
-      </c>
-      <c r="D18" t="n" s="659">
-        <v>0.866793324198627</v>
-      </c>
-      <c r="E18" t="n" s="660">
-        <v>0.6145444451781155</v>
-      </c>
-      <c r="F18" t="n" s="661">
-        <v>0.5026613337506116</v>
-      </c>
-      <c r="G18" t="n" s="662">
-        <v>2.3684210526315788</v>
-      </c>
-      <c r="H18" t="n" s="663">
-        <v>1.3440771501259718</v>
+      <c r="C18" t="n" s="657">
+        <v>0.9434020268960891</v>
+      </c>
+      <c r="D18" t="n" s="658">
+        <v>0.9468245062581792</v>
+      </c>
+      <c r="E18" t="n" s="659">
+        <v>0.8431275744182806</v>
+      </c>
+      <c r="F18" t="n" s="660">
+        <v>0.7929532913020896</v>
+      </c>
+      <c r="G18" t="n" s="661">
+        <v>2.0789473684210527</v>
+      </c>
+      <c r="H18" t="n" s="662">
+        <v>1.4023451197878813</v>
       </c>
     </row>
     <row r="19">
@@ -7188,74 +7338,74 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="667">
-        <v>36</v>
+      <c r="A21" t="s" s="666">
+        <v>37</v>
       </c>
     </row>
     <row r="22">
       <c r="A22"/>
-      <c r="B22" t="s" s="681">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s" s="681">
+      <c r="B22" t="s" s="680">
         <v>38</v>
       </c>
-      <c r="D22" t="s" s="681">
+      <c r="C22" t="s" s="680">
         <v>39</v>
       </c>
-      <c r="E22" t="s" s="681">
+      <c r="D22" t="s" s="680">
         <v>40</v>
       </c>
-      <c r="F22" t="s" s="681">
+      <c r="E22" t="s" s="680">
         <v>41</v>
       </c>
-      <c r="G22" t="s" s="681">
-        <v>43</v>
+      <c r="F22" t="s" s="680">
+        <v>42</v>
+      </c>
+      <c r="G22" t="s" s="680">
+        <v>44</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="677">
-        <v>26</v>
-      </c>
-      <c r="B23" t="n" s="682">
-        <v>0.39473684210526316</v>
-      </c>
-      <c r="C23" t="n" s="683">
+      <c r="A23" t="s" s="676">
+        <v>29</v>
+      </c>
+      <c r="B23" t="n" s="681">
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="C23" t="n" s="682">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="D23" t="n" s="683">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="E23" t="n" s="684">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="F23" t="n" s="685">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="G23" t="n" s="686">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="676">
+        <v>30</v>
+      </c>
+      <c r="B24" t="n" s="681">
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="C24" t="n" s="682">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="D24" t="n" s="683">
+        <v>0.34210526315789475</v>
+      </c>
+      <c r="E24" t="n" s="684">
         <v>0.21052631578947367</v>
       </c>
-      <c r="D23" t="n" s="684">
-        <v>0.0</v>
-      </c>
-      <c r="E23" t="n" s="685">
-        <v>0.2894736842105263</v>
-      </c>
-      <c r="F23" t="n" s="686">
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="G23" t="n" s="687">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="677">
-        <v>27</v>
-      </c>
-      <c r="B24" t="n" s="682">
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="C24" t="n" s="683">
-        <v>0.13157894736842105</v>
-      </c>
-      <c r="D24" t="n" s="684">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="E24" t="n" s="685">
-        <v>0.5</v>
-      </c>
-      <c r="F24" t="n" s="686">
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="G24" t="n" s="687">
+      <c r="F24" t="n" s="685">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="G24" t="n" s="686">
         <v>0.0</v>
       </c>
     </row>
@@ -7285,8 +7435,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="689">
-        <v>49</v>
+      <c r="A1" t="s" s="688">
+        <v>50</v>
       </c>
     </row>
     <row r="2">
@@ -7300,66 +7450,66 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="703">
+      <c r="A4" t="s" s="702">
         <v>2</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="717">
+      <c r="A5" t="s" s="716">
         <v>3</v>
       </c>
-      <c r="B5" t="s" s="717">
+      <c r="B5" t="s" s="716">
         <v>4</v>
       </c>
-      <c r="C5" t="s" s="717">
+      <c r="C5" t="s" s="716">
         <v>5</v>
       </c>
-      <c r="D5" t="s" s="717">
+      <c r="D5" t="s" s="716">
         <v>6</v>
       </c>
-      <c r="E5" t="s" s="717">
+      <c r="E5" t="s" s="716">
         <v>7</v>
       </c>
-      <c r="F5" t="s" s="717">
+      <c r="F5" t="s" s="716">
         <v>8</v>
       </c>
-      <c r="G5" t="s" s="717">
+      <c r="G5" t="s" s="716">
         <v>9</v>
       </c>
-      <c r="H5" t="s" s="717">
+      <c r="H5" t="s" s="716">
         <v>10</v>
       </c>
-      <c r="I5" t="s" s="717">
+      <c r="I5" t="s" s="716">
         <v>11</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n" s="718">
-        <v>0.8430153294691289</v>
-      </c>
-      <c r="B6" t="n" s="719">
-        <v>0.8470018696856181</v>
-      </c>
-      <c r="C6" t="n" s="720">
-        <v>0.9419351646643027</v>
-      </c>
-      <c r="D6" t="n" s="721">
-        <v>0.3563348194330678</v>
-      </c>
-      <c r="E6" t="n" s="722">
-        <v>5.536027583769756</v>
-      </c>
-      <c r="F6" t="n" s="723">
-        <v>0.03656253168344883</v>
-      </c>
-      <c r="G6" t="n" s="724">
-        <v>2.6342105263157896</v>
-      </c>
-      <c r="H6" t="n" s="725">
-        <v>1.0057339167183104</v>
-      </c>
-      <c r="I6" t="n" s="726">
-        <v>0.33286688426750305</v>
+      <c r="A6" t="n" s="717">
+        <v>0.8432886919132995</v>
+      </c>
+      <c r="B6" t="n" s="718">
+        <v>0.8767651072736422</v>
+      </c>
+      <c r="C6" t="n" s="719">
+        <v>0.9490983034834654</v>
+      </c>
+      <c r="D6" t="n" s="720">
+        <v>0.41570303592713104</v>
+      </c>
+      <c r="E6" t="n" s="721">
+        <v>7.114584902674383</v>
+      </c>
+      <c r="F6" t="n" s="722">
+        <v>0.034413754376564916</v>
+      </c>
+      <c r="G6" t="n" s="723">
+        <v>2.0078947368421054</v>
+      </c>
+      <c r="H6" t="n" s="724">
+        <v>0.9530552801378195</v>
+      </c>
+      <c r="I6" t="n" s="725">
+        <v>0.3582064868100296</v>
       </c>
     </row>
     <row r="7">
@@ -7373,325 +7523,325 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="730">
+      <c r="A9" t="s" s="729">
         <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10"/>
-      <c r="B10" t="s" s="744">
+      <c r="B10" t="s" s="743">
         <v>3</v>
       </c>
-      <c r="C10" t="s" s="744">
+      <c r="C10" t="s" s="743">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="744">
+      <c r="D10" t="s" s="743">
         <v>13</v>
       </c>
-      <c r="E10" t="s" s="744">
+      <c r="E10" t="s" s="743">
         <v>6</v>
       </c>
-      <c r="F10" t="s" s="744">
+      <c r="F10" t="s" s="743">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="744">
+      <c r="G10" t="s" s="743">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="744">
+      <c r="H10" t="s" s="743">
         <v>16</v>
       </c>
-      <c r="I10" t="s" s="744">
+      <c r="I10" t="s" s="743">
         <v>17</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="740">
+      <c r="A11" t="s" s="739">
+        <v>21</v>
+      </c>
+      <c r="B11" t="n" s="744">
+        <v>0.834586035864174</v>
+      </c>
+      <c r="C11" t="n" s="745">
+        <v>0.8618381370322528</v>
+      </c>
+      <c r="D11" t="n" s="746">
+        <v>0.9357308108133503</v>
+      </c>
+      <c r="E11" t="n" s="747">
+        <v>0.4093669421326252</v>
+      </c>
+      <c r="F11" t="n" s="748">
+        <v>6.237887348359237</v>
+      </c>
+      <c r="G11" t="n" s="749">
+        <v>0.037981276597955575</v>
+      </c>
+      <c r="H11" t="n" s="750">
+        <v>0.04297001631480414</v>
+      </c>
+      <c r="I11" t="n" s="751">
+        <v>0.3606060941837782</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="739">
+        <v>22</v>
+      </c>
+      <c r="B12" t="n" s="744">
+        <v>0.8133105279281119</v>
+      </c>
+      <c r="C12" t="n" s="745">
+        <v>0.8593728427433236</v>
+      </c>
+      <c r="D12" t="n" s="746">
+        <v>0.9367565589935183</v>
+      </c>
+      <c r="E12" t="n" s="747">
+        <v>0.40440746515656023</v>
+      </c>
+      <c r="F12" t="n" s="748">
+        <v>6.111002024842004</v>
+      </c>
+      <c r="G12" t="n" s="749">
+        <v>0.04192863559967227</v>
+      </c>
+      <c r="H12" t="n" s="750">
+        <v>0.044613336288221214</v>
+      </c>
+      <c r="I12" t="n" s="751">
+        <v>0.35913316848146437</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="739">
+        <v>23</v>
+      </c>
+      <c r="B13" t="n" s="744">
+        <v>0.8178512041117713</v>
+      </c>
+      <c r="C13" t="n" s="745">
+        <v>0.8593858156190101</v>
+      </c>
+      <c r="D13" t="n" s="746">
+        <v>0.9338917130176523</v>
+      </c>
+      <c r="E13" t="n" s="747">
+        <v>0.40443332197308884</v>
+      </c>
+      <c r="F13" t="n" s="748">
+        <v>6.111658076332685</v>
+      </c>
+      <c r="G13" t="n" s="749">
+        <v>0.04088166093480406</v>
+      </c>
+      <c r="H13" t="n" s="750">
+        <v>0.043527726495098194</v>
+      </c>
+      <c r="I13" t="n" s="751">
+        <v>0.3606060941837782</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="739">
         <v>18</v>
       </c>
-      <c r="B11" t="n" s="745">
-        <v>0.822143233280674</v>
-      </c>
-      <c r="C11" t="n" s="746">
-        <v>0.8216038476050396</v>
-      </c>
-      <c r="D11" t="n" s="747">
-        <v>0.9178571269938733</v>
-      </c>
-      <c r="E11" t="n" s="748">
-        <v>0.33850291158911844</v>
-      </c>
-      <c r="F11" t="n" s="749">
-        <v>4.605502061423663</v>
-      </c>
-      <c r="G11" t="n" s="750">
-        <v>0.04081231372396166</v>
-      </c>
-      <c r="H11" t="n" s="751">
-        <v>0.039412010240113905</v>
-      </c>
-      <c r="I11" t="n" s="752">
-        <v>0.3226564393694822</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="740">
+      <c r="B14" t="n" s="744">
+        <v>0.8463207745227868</v>
+      </c>
+      <c r="C14" t="n" s="745">
+        <v>0.8688797732340295</v>
+      </c>
+      <c r="D14" t="n" s="746">
+        <v>0.9406222889558323</v>
+      </c>
+      <c r="E14" t="n" s="747">
+        <v>0.4240585486967255</v>
+      </c>
+      <c r="F14" t="n" s="748">
+        <v>6.626588396501528</v>
+      </c>
+      <c r="G14" t="n" s="749">
+        <v>0.03549611734321089</v>
+      </c>
+      <c r="H14" t="n" s="750">
+        <v>0.04856764210257045</v>
+      </c>
+      <c r="I14" t="n" s="751">
+        <v>0.3606060941837782</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="739">
         <v>19</v>
       </c>
-      <c r="B12" t="n" s="745">
-        <v>0.8387802429962523</v>
-      </c>
-      <c r="C12" t="n" s="746">
-        <v>0.8419146258051177</v>
-      </c>
-      <c r="D12" t="n" s="747">
-        <v>0.9254692919072209</v>
-      </c>
-      <c r="E12" t="n" s="748">
-        <v>0.37175826735997525</v>
-      </c>
-      <c r="F12" t="n" s="749">
-        <v>5.325695878527217</v>
-      </c>
-      <c r="G12" t="n" s="750">
-        <v>0.03724998181314673</v>
-      </c>
-      <c r="H12" t="n" s="751">
-        <v>0.037719327107408385</v>
-      </c>
-      <c r="I12" t="n" s="752">
-        <v>0.3516547424401359</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="740">
+      <c r="B15" t="n" s="744">
+        <v>0.8204047814633317</v>
+      </c>
+      <c r="C15" t="n" s="745">
+        <v>0.854473363059776</v>
+      </c>
+      <c r="D15" t="n" s="746">
+        <v>0.9348959976476162</v>
+      </c>
+      <c r="E15" t="n" s="747">
+        <v>0.3948194218156519</v>
+      </c>
+      <c r="F15" t="n" s="748">
+        <v>5.871594238866089</v>
+      </c>
+      <c r="G15" t="n" s="749">
+        <v>0.03820433874836943</v>
+      </c>
+      <c r="H15" t="n" s="750">
+        <v>0.05294464960700096</v>
+      </c>
+      <c r="I15" t="n" s="751">
+        <v>0.3411614687364917</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="739">
         <v>20</v>
       </c>
-      <c r="B13" t="n" s="745">
-        <v>0.8370152481632717</v>
-      </c>
-      <c r="C13" t="n" s="746">
-        <v>0.8403581922469323</v>
-      </c>
-      <c r="D13" t="n" s="747">
-        <v>0.9113163844932526</v>
-      </c>
-      <c r="E13" t="n" s="748">
-        <v>0.3690419719438929</v>
-      </c>
-      <c r="F13" t="n" s="749">
-        <v>5.264023278581196</v>
-      </c>
-      <c r="G13" t="n" s="750">
-        <v>0.03838496549599643</v>
-      </c>
-      <c r="H13" t="n" s="751">
-        <v>0.03756124344004143</v>
-      </c>
-      <c r="I13" t="n" s="752">
-        <v>0.3516547424401359</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="740">
-        <v>21</v>
-      </c>
-      <c r="B14" t="n" s="745">
-        <v>0.838865878184256</v>
-      </c>
-      <c r="C14" t="n" s="746">
-        <v>0.8436691591313988</v>
-      </c>
-      <c r="D14" t="n" s="747">
-        <v>0.9169152184930979</v>
-      </c>
-      <c r="E14" t="n" s="748">
-        <v>0.3748563241976039</v>
-      </c>
-      <c r="F14" t="n" s="749">
-        <v>5.396690470311728</v>
-      </c>
-      <c r="G14" t="n" s="750">
-        <v>0.03785383305614078</v>
-      </c>
-      <c r="H14" t="n" s="751">
-        <v>0.03559661156528773</v>
-      </c>
-      <c r="I14" t="n" s="752">
-        <v>0.33895550829442256</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="740">
+      <c r="B16" t="n" s="744">
+        <v>0.8390376012463897</v>
+      </c>
+      <c r="C16" t="n" s="745">
+        <v>0.8710048407618308</v>
+      </c>
+      <c r="D16" t="n" s="746">
+        <v>0.9427775183724026</v>
+      </c>
+      <c r="E16" t="n" s="747">
+        <v>0.42865228385371357</v>
+      </c>
+      <c r="F16" t="n" s="748">
+        <v>6.7522288890985305</v>
+      </c>
+      <c r="G16" t="n" s="749">
+        <v>0.03424225563239628</v>
+      </c>
+      <c r="H16" t="n" s="750">
+        <v>0.048524392767465514</v>
+      </c>
+      <c r="I16" t="n" s="751">
+        <v>0.3644175377659603</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="739">
+        <v>27</v>
+      </c>
+      <c r="B17" t="n" s="744">
+        <v>0.8254511256382485</v>
+      </c>
+      <c r="C17" t="n" s="745">
+        <v>0.8684881705278364</v>
+      </c>
+      <c r="D17" t="n" s="746">
+        <v>0.9502884503439383</v>
+      </c>
+      <c r="E17" t="n" s="747">
+        <v>0.4232203307713747</v>
+      </c>
+      <c r="F17" t="n" s="748">
+        <v>6.603878708201413</v>
+      </c>
+      <c r="G17" t="n" s="749">
+        <v>0.03851714907685829</v>
+      </c>
+      <c r="H17" t="n" s="750">
+        <v>0.0623222257244884</v>
+      </c>
+      <c r="I17" t="n" s="751">
+        <v>0.35165474244013595</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="739">
         <v>28</v>
       </c>
-      <c r="B15" t="n" s="745">
-        <v>0.8270021318701853</v>
-      </c>
-      <c r="C15" t="n" s="746">
-        <v>0.8281774083026188</v>
-      </c>
-      <c r="D15" t="n" s="747">
-        <v>0.925373584194996</v>
-      </c>
-      <c r="E15" t="n" s="748">
-        <v>0.34876784629443247</v>
-      </c>
-      <c r="F15" t="n" s="749">
-        <v>4.819956445315573</v>
-      </c>
-      <c r="G15" t="n" s="750">
-        <v>0.03928074294500154</v>
-      </c>
-      <c r="H15" t="n" s="751">
-        <v>0.038247173483173955</v>
-      </c>
-      <c r="I15" t="n" s="752">
-        <v>0.32808182262365637</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="740">
+      <c r="B18" t="n" s="744">
+        <v>0.8311856742586068</v>
+      </c>
+      <c r="C18" t="n" s="745">
+        <v>0.8729689253062098</v>
+      </c>
+      <c r="D18" t="n" s="746">
+        <v>0.950881594031352</v>
+      </c>
+      <c r="E18" t="n" s="747">
+        <v>0.432966910115568</v>
+      </c>
+      <c r="F18" t="n" s="748">
+        <v>6.872089584462003</v>
+      </c>
+      <c r="G18" t="n" s="749">
+        <v>0.0370220255708904</v>
+      </c>
+      <c r="H18" t="n" s="750">
+        <v>0.05899710857555372</v>
+      </c>
+      <c r="I18" t="n" s="751">
+        <v>0.35165474244013595</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="739">
         <v>29</v>
       </c>
-      <c r="B16" t="n" s="745">
-        <v>0.8257575118874988</v>
-      </c>
-      <c r="C16" t="n" s="746">
-        <v>0.8279097252922164</v>
-      </c>
-      <c r="D16" t="n" s="747">
-        <v>0.9310519147495788</v>
-      </c>
-      <c r="E16" t="n" s="748">
-        <v>0.3483409740130941</v>
-      </c>
-      <c r="F16" t="n" s="749">
-        <v>4.810903618452821</v>
-      </c>
-      <c r="G16" t="n" s="750">
-        <v>0.0400053410760376</v>
-      </c>
-      <c r="H16" t="n" s="751">
-        <v>0.03935531167819925</v>
-      </c>
-      <c r="I16" t="n" s="752">
-        <v>0.3335704861328084</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="740">
-        <v>22</v>
-      </c>
-      <c r="B17" t="n" s="745">
-        <v>0.8131737091064151</v>
-      </c>
-      <c r="C17" t="n" s="746">
-        <v>0.8246707353034478</v>
-      </c>
-      <c r="D17" t="n" s="747">
-        <v>0.9122787395126791</v>
-      </c>
-      <c r="E17" t="n" s="748">
-        <v>0.343236087955282</v>
-      </c>
-      <c r="F17" t="n" s="749">
-        <v>4.703554405083092</v>
-      </c>
-      <c r="G17" t="n" s="750">
-        <v>0.04490762089220439</v>
-      </c>
-      <c r="H17" t="n" s="751">
-        <v>0.0365542934579966</v>
-      </c>
-      <c r="I17" t="n" s="752">
-        <v>0.3200441369070488</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="740">
-        <v>23</v>
-      </c>
-      <c r="B18" t="n" s="745">
-        <v>0.8153576123174745</v>
-      </c>
-      <c r="C18" t="n" s="746">
-        <v>0.8241388041713017</v>
-      </c>
-      <c r="D18" t="n" s="747">
-        <v>0.9111006098333481</v>
-      </c>
-      <c r="E18" t="n" s="748">
-        <v>0.3424082332640459</v>
-      </c>
-      <c r="F18" t="n" s="749">
-        <v>4.686302741703596</v>
-      </c>
-      <c r="G18" t="n" s="750">
-        <v>0.04457277441304738</v>
-      </c>
-      <c r="H18" t="n" s="751">
-        <v>0.03629782834722058</v>
-      </c>
-      <c r="I18" t="n" s="752">
-        <v>0.3226564393694822</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="740">
-        <v>26</v>
-      </c>
-      <c r="B19" t="n" s="745">
-        <v>0.8289904970017279</v>
-      </c>
-      <c r="C19" t="n" s="746">
-        <v>0.8364808346819359</v>
-      </c>
-      <c r="D19" t="n" s="747">
-        <v>0.9319459801769404</v>
-      </c>
-      <c r="E19" t="n" s="748">
-        <v>0.36240263006436596</v>
-      </c>
-      <c r="F19" t="n" s="749">
-        <v>5.11549109888668</v>
-      </c>
-      <c r="G19" t="n" s="750">
-        <v>0.04038624300851638</v>
-      </c>
-      <c r="H19" t="n" s="751">
-        <v>0.04207967593443848</v>
-      </c>
-      <c r="I19" t="n" s="752">
-        <v>0.3274415010133289</v>
+      <c r="B19" t="n" s="744">
+        <v>0.8266649086637579</v>
+      </c>
+      <c r="C19" t="n" s="745">
+        <v>0.8663357479514702</v>
+      </c>
+      <c r="D19" t="n" s="746">
+        <v>0.9379300242322957</v>
+      </c>
+      <c r="E19" t="n" s="747">
+        <v>0.41865842549289106</v>
+      </c>
+      <c r="F19" t="n" s="748">
+        <v>6.4814319062431744</v>
+      </c>
+      <c r="G19" t="n" s="749">
+        <v>0.036475494335306044</v>
+      </c>
+      <c r="H19" t="n" s="750">
+        <v>0.05661776951229846</v>
+      </c>
+      <c r="I19" t="n" s="751">
+        <v>0.3567335611077158</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="740">
-        <v>27</v>
-      </c>
-      <c r="B20" t="n" s="745">
-        <v>0.8322160156601934</v>
-      </c>
-      <c r="C20" t="n" s="746">
-        <v>0.8374426878064443</v>
-      </c>
-      <c r="D20" t="n" s="747">
-        <v>0.940568472161812</v>
-      </c>
-      <c r="E20" t="n" s="748">
-        <v>0.36403294764886696</v>
-      </c>
-      <c r="F20" t="n" s="749">
-        <v>5.151676516460288</v>
-      </c>
-      <c r="G20" t="n" s="750">
-        <v>0.0393865518114131</v>
-      </c>
-      <c r="H20" t="n" s="751">
-        <v>0.04274096346837245</v>
-      </c>
-      <c r="I20" t="n" s="752">
-        <v>0.32808182262365637</v>
+      <c r="A20" t="s" s="739">
+        <v>30</v>
+      </c>
+      <c r="B20" t="n" s="744">
+        <v>0.8248986023307183</v>
+      </c>
+      <c r="C20" t="n" s="745">
+        <v>0.8652791491864725</v>
+      </c>
+      <c r="D20" t="n" s="746">
+        <v>0.9391878083532882</v>
+      </c>
+      <c r="E20" t="n" s="747">
+        <v>0.41644670926311167</v>
+      </c>
+      <c r="F20" t="n" s="748">
+        <v>6.422755972526779</v>
+      </c>
+      <c r="G20" t="n" s="749">
+        <v>0.03738159161169568</v>
+      </c>
+      <c r="H20" t="n" s="750">
+        <v>0.058275425925088</v>
+      </c>
+      <c r="I20" t="n" s="751">
+        <v>0.3606060941837782</v>
       </c>
     </row>
     <row r="21">
@@ -7705,292 +7855,292 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="756">
-        <v>30</v>
+      <c r="A23" t="s" s="755">
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24"/>
-      <c r="B24" t="s" s="770">
-        <v>31</v>
-      </c>
-      <c r="C24" t="s" s="770">
+      <c r="B24" t="s" s="769">
         <v>32</v>
       </c>
-      <c r="D24" t="s" s="770">
+      <c r="C24" t="s" s="769">
         <v>33</v>
       </c>
-      <c r="E24" t="s" s="770">
+      <c r="D24" t="s" s="769">
         <v>34</v>
       </c>
-      <c r="F24" t="s" s="770">
+      <c r="E24" t="s" s="769">
         <v>35</v>
       </c>
-      <c r="G24" t="s" s="770">
+      <c r="F24" t="s" s="769">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s" s="769">
         <v>9</v>
       </c>
-      <c r="H24" t="s" s="770">
+      <c r="H24" t="s" s="769">
         <v>10</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="766">
+      <c r="A25" t="s" s="765">
+        <v>21</v>
+      </c>
+      <c r="B25" t="n" s="770">
+        <v>38.0</v>
+      </c>
+      <c r="C25" t="n" s="771">
+        <v>0.7709229725417768</v>
+      </c>
+      <c r="D25" t="n" s="772">
+        <v>0.7216993594726948</v>
+      </c>
+      <c r="E25" t="n" s="773">
+        <v>0.7361216251369057</v>
+      </c>
+      <c r="F25" t="n" s="774">
+        <v>0.7488247188848235</v>
+      </c>
+      <c r="G25" t="n" s="775">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="H25" t="n" s="776">
+        <v>0.4888515295293514</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="765">
+        <v>22</v>
+      </c>
+      <c r="B26" t="n" s="770">
+        <v>38.0</v>
+      </c>
+      <c r="C26" t="n" s="771">
+        <v>0.8056517260465411</v>
+      </c>
+      <c r="D26" t="n" s="772">
+        <v>0.7476285172267341</v>
+      </c>
+      <c r="E26" t="n" s="773">
+        <v>0.7584905153856346</v>
+      </c>
+      <c r="F26" t="n" s="774">
+        <v>0.7010815000973949</v>
+      </c>
+      <c r="G26" t="n" s="775">
+        <v>1.5263157894736843</v>
+      </c>
+      <c r="H26" t="n" s="776">
+        <v>2.127513992779762</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="765">
+        <v>23</v>
+      </c>
+      <c r="B27" t="n" s="770">
+        <v>38.0</v>
+      </c>
+      <c r="C27" t="n" s="771">
+        <v>0.8024477012355974</v>
+      </c>
+      <c r="D27" t="n" s="772">
+        <v>0.7474933325130994</v>
+      </c>
+      <c r="E27" t="n" s="773">
+        <v>0.7635775337494835</v>
+      </c>
+      <c r="F27" t="n" s="774">
+        <v>0.6864476159300769</v>
+      </c>
+      <c r="G27" t="n" s="775">
+        <v>1.6842105263157894</v>
+      </c>
+      <c r="H27" t="n" s="776">
+        <v>2.279227739743427</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="765">
         <v>18</v>
       </c>
-      <c r="B25" t="n" s="771">
+      <c r="B28" t="n" s="770">
         <v>38.0</v>
       </c>
-      <c r="C25" t="n" s="772">
-        <v>0.7129266561880789</v>
-      </c>
-      <c r="D25" t="n" s="773">
-        <v>0.7475871699780237</v>
-      </c>
-      <c r="E25" t="n" s="774">
-        <v>0.7388966832868492</v>
-      </c>
-      <c r="F25" t="n" s="775">
-        <v>0.6445583172882975</v>
-      </c>
-      <c r="G25" t="n" s="776">
+      <c r="C28" t="n" s="771">
+        <v>0.5420696715182478</v>
+      </c>
+      <c r="D28" t="n" s="772">
+        <v>0.6448886421129212</v>
+      </c>
+      <c r="E28" t="n" s="773">
+        <v>0.6321421632656182</v>
+      </c>
+      <c r="F28" t="n" s="774">
+        <v>0.521345602154985</v>
+      </c>
+      <c r="G28" t="n" s="775">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="H28" t="n" s="776">
+        <v>0.2732763127330939</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="765">
+        <v>19</v>
+      </c>
+      <c r="B29" t="n" s="770">
+        <v>38.0</v>
+      </c>
+      <c r="C29" t="n" s="771">
+        <v>0.7285631413145287</v>
+      </c>
+      <c r="D29" t="n" s="772">
+        <v>0.7977567645275677</v>
+      </c>
+      <c r="E29" t="n" s="773">
+        <v>0.7962885412628578</v>
+      </c>
+      <c r="F29" t="n" s="774">
+        <v>0.6589585456305027</v>
+      </c>
+      <c r="G29" t="n" s="775">
         <v>3.473684210526316</v>
       </c>
-      <c r="H25" t="n" s="777">
+      <c r="H29" t="n" s="776">
         <v>1.224454475448825</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="s" s="766">
-        <v>19</v>
-      </c>
-      <c r="B26" t="n" s="771">
+    <row r="30">
+      <c r="A30" t="s" s="765">
+        <v>20</v>
+      </c>
+      <c r="B30" t="n" s="770">
         <v>38.0</v>
       </c>
-      <c r="C26" t="n" s="772">
-        <v>0.5322864076249137</v>
-      </c>
-      <c r="D26" t="n" s="773">
-        <v>0.5630103528175721</v>
-      </c>
-      <c r="E26" t="n" s="774">
-        <v>0.5423392274334705</v>
-      </c>
-      <c r="F26" t="n" s="775">
-        <v>0.41831549853810895</v>
-      </c>
-      <c r="G26" t="n" s="776">
+      <c r="C30" t="n" s="771">
+        <v>0.5428451636608916</v>
+      </c>
+      <c r="D30" t="n" s="772">
+        <v>0.620871657229098</v>
+      </c>
+      <c r="E30" t="n" s="773">
+        <v>0.6030118114157149</v>
+      </c>
+      <c r="F30" t="n" s="774">
+        <v>0.42345949366561647</v>
+      </c>
+      <c r="G30" t="n" s="775">
         <v>3.9473684210526314</v>
       </c>
-      <c r="H26" t="n" s="777">
+      <c r="H30" t="n" s="776">
         <v>1.4322042814629075</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="s" s="766">
-        <v>20</v>
-      </c>
-      <c r="B27" t="n" s="771">
+    <row r="31">
+      <c r="A31" t="s" s="765">
+        <v>27</v>
+      </c>
+      <c r="B31" t="n" s="770">
         <v>38.0</v>
       </c>
-      <c r="C27" t="n" s="772">
-        <v>0.5312944082587797</v>
-      </c>
-      <c r="D27" t="n" s="773">
-        <v>0.578086575902438</v>
-      </c>
-      <c r="E27" t="n" s="774">
-        <v>0.5657782111444118</v>
-      </c>
-      <c r="F27" t="n" s="775">
-        <v>0.45062177353079563</v>
-      </c>
-      <c r="G27" t="n" s="776">
-        <v>3.6842105263157894</v>
-      </c>
-      <c r="H27" t="n" s="777">
-        <v>1.0424830845187962</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="766">
-        <v>21</v>
-      </c>
-      <c r="B28" t="n" s="771">
+      <c r="C31" t="n" s="771">
+        <v>0.6762480093923339</v>
+      </c>
+      <c r="D31" t="n" s="772">
+        <v>0.6492710164890042</v>
+      </c>
+      <c r="E31" t="n" s="773">
+        <v>0.5824625645063713</v>
+      </c>
+      <c r="F31" t="n" s="774">
+        <v>0.5742638003929575</v>
+      </c>
+      <c r="G31" t="n" s="775">
+        <v>1.5</v>
+      </c>
+      <c r="H31" t="n" s="776">
+        <v>1.5201351291285952</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="765">
+        <v>28</v>
+      </c>
+      <c r="B32" t="n" s="770">
         <v>38.0</v>
       </c>
-      <c r="C28" t="n" s="772">
-        <v>0.5190572978786128</v>
-      </c>
-      <c r="D28" t="n" s="773">
-        <v>0.5458152437226096</v>
-      </c>
-      <c r="E28" t="n" s="774">
-        <v>0.5293831460251512</v>
-      </c>
-      <c r="F28" t="n" s="775">
-        <v>0.41329162544594855</v>
-      </c>
-      <c r="G28" t="n" s="776">
-        <v>3.8684210526315788</v>
-      </c>
-      <c r="H28" t="n" s="777">
-        <v>1.3187023234692454</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="766">
-        <v>28</v>
-      </c>
-      <c r="B29" t="n" s="771">
+      <c r="C32" t="n" s="771">
+        <v>0.6137504871033058</v>
+      </c>
+      <c r="D32" t="n" s="772">
+        <v>0.5983139106091893</v>
+      </c>
+      <c r="E32" t="n" s="773">
+        <v>0.5298070037228679</v>
+      </c>
+      <c r="F32" t="n" s="774">
+        <v>0.5137142311296277</v>
+      </c>
+      <c r="G32" t="n" s="775">
+        <v>2.3684210526315788</v>
+      </c>
+      <c r="H32" t="n" s="776">
+        <v>1.3440771501259718</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="765">
+        <v>29</v>
+      </c>
+      <c r="B33" t="n" s="770">
         <v>38.0</v>
       </c>
-      <c r="C29" t="n" s="772">
-        <v>0.654479159382679</v>
-      </c>
-      <c r="D29" t="n" s="773">
-        <v>0.690613821404586</v>
-      </c>
-      <c r="E29" t="n" s="774">
-        <v>0.671671081736537</v>
-      </c>
-      <c r="F29" t="n" s="775">
-        <v>0.5563123613454877</v>
-      </c>
-      <c r="G29" t="n" s="776">
+      <c r="C33" t="n" s="771">
+        <v>0.6642370856042364</v>
+      </c>
+      <c r="D33" t="n" s="772">
+        <v>0.6731215882722091</v>
+      </c>
+      <c r="E33" t="n" s="773">
+        <v>0.6503779652448605</v>
+      </c>
+      <c r="F33" t="n" s="774">
+        <v>0.5618704130271192</v>
+      </c>
+      <c r="G33" t="n" s="775">
         <v>2.210526315789474</v>
       </c>
-      <c r="H29" t="n" s="777">
+      <c r="H33" t="n" s="776">
         <v>1.491559944104269</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="s" s="766">
-        <v>29</v>
-      </c>
-      <c r="B30" t="n" s="771">
+    <row r="34">
+      <c r="A34" t="s" s="765">
+        <v>30</v>
+      </c>
+      <c r="B34" t="n" s="770">
         <v>38.0</v>
       </c>
-      <c r="C30" t="n" s="772">
-        <v>0.6649007299377151</v>
-      </c>
-      <c r="D30" t="n" s="773">
-        <v>0.6929830856989255</v>
-      </c>
-      <c r="E30" t="n" s="774">
-        <v>0.6633230416931764</v>
-      </c>
-      <c r="F30" t="n" s="775">
-        <v>0.5753814239486931</v>
-      </c>
-      <c r="G30" t="n" s="776">
+      <c r="C34" t="n" s="771">
+        <v>0.6769598826007551</v>
+      </c>
+      <c r="D34" t="n" s="772">
+        <v>0.684684892085471</v>
+      </c>
+      <c r="E34" t="n" s="773">
+        <v>0.6559135642567172</v>
+      </c>
+      <c r="F34" t="n" s="774">
+        <v>0.5842201103975571</v>
+      </c>
+      <c r="G34" t="n" s="775">
         <v>2.0789473684210527</v>
       </c>
-      <c r="H30" t="n" s="777">
+      <c r="H34" t="n" s="776">
         <v>1.4023451197878813</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="766">
-        <v>22</v>
-      </c>
-      <c r="B31" t="n" s="771">
-        <v>38.0</v>
-      </c>
-      <c r="C31" t="n" s="772">
-        <v>0.7934354070094205</v>
-      </c>
-      <c r="D31" t="n" s="773">
-        <v>0.7213166758433274</v>
-      </c>
-      <c r="E31" t="n" s="774">
-        <v>0.7333130197753711</v>
-      </c>
-      <c r="F31" t="n" s="775">
-        <v>0.6910401273981328</v>
-      </c>
-      <c r="G31" t="n" s="776">
-        <v>1.5263157894736843</v>
-      </c>
-      <c r="H31" t="n" s="777">
-        <v>2.127513992779762</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="766">
-        <v>23</v>
-      </c>
-      <c r="B32" t="n" s="771">
-        <v>38.0</v>
-      </c>
-      <c r="C32" t="n" s="772">
-        <v>0.7971531645334101</v>
-      </c>
-      <c r="D32" t="n" s="773">
-        <v>0.7259115081774802</v>
-      </c>
-      <c r="E32" t="n" s="774">
-        <v>0.7385158537087826</v>
-      </c>
-      <c r="F32" t="n" s="775">
-        <v>0.6868117618576801</v>
-      </c>
-      <c r="G32" t="n" s="776">
-        <v>1.6842105263157894</v>
-      </c>
-      <c r="H32" t="n" s="777">
-        <v>2.279227739743427</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="766">
-        <v>26</v>
-      </c>
-      <c r="B33" t="n" s="771">
-        <v>38.0</v>
-      </c>
-      <c r="C33" t="n" s="772">
-        <v>0.6372916869288475</v>
-      </c>
-      <c r="D33" t="n" s="773">
-        <v>0.614936838476898</v>
-      </c>
-      <c r="E33" t="n" s="774">
-        <v>0.5704704372933572</v>
-      </c>
-      <c r="F33" t="n" s="775">
-        <v>0.5335502545840234</v>
-      </c>
-      <c r="G33" t="n" s="776">
-        <v>1.5</v>
-      </c>
-      <c r="H33" t="n" s="777">
-        <v>1.5201351291285952</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="766">
-        <v>27</v>
-      </c>
-      <c r="B34" t="n" s="771">
-        <v>38.0</v>
-      </c>
-      <c r="C34" t="n" s="772">
-        <v>0.5962301739176358</v>
-      </c>
-      <c r="D34" t="n" s="773">
-        <v>0.6058881056116912</v>
-      </c>
-      <c r="E34" t="n" s="774">
-        <v>0.5413341874717219</v>
-      </c>
-      <c r="F34" t="n" s="775">
-        <v>0.4992584666350479</v>
-      </c>
-      <c r="G34" t="n" s="776">
-        <v>2.3684210526315788</v>
-      </c>
-      <c r="H34" t="n" s="777">
-        <v>1.3440771501259718</v>
       </c>
     </row>
     <row r="35">
@@ -8004,291 +8154,291 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="781">
-        <v>36</v>
+      <c r="A37" t="s" s="780">
+        <v>37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38"/>
-      <c r="B38" t="s" s="795">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s" s="795">
+      <c r="B38" t="s" s="794">
         <v>38</v>
       </c>
-      <c r="D38" t="s" s="795">
+      <c r="C38" t="s" s="794">
         <v>39</v>
       </c>
-      <c r="E38" t="s" s="795">
+      <c r="D38" t="s" s="794">
         <v>40</v>
       </c>
-      <c r="F38" t="s" s="795">
+      <c r="E38" t="s" s="794">
         <v>41</v>
       </c>
-      <c r="G38" t="s" s="795">
+      <c r="F38" t="s" s="794">
         <v>42</v>
       </c>
-      <c r="H38" t="s" s="795">
+      <c r="G38" t="s" s="794">
         <v>43</v>
       </c>
+      <c r="H38" t="s" s="794">
+        <v>44</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="791">
+      <c r="A39" t="s" s="790">
+        <v>21</v>
+      </c>
+      <c r="B39" t="n" s="795">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="C39" t="n" s="796">
+        <v>0.3684210526315789</v>
+      </c>
+      <c r="D39" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E39" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H39" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="790">
+        <v>22</v>
+      </c>
+      <c r="B40" t="n" s="795">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="C40" t="n" s="796">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="D40" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E40" t="n" s="798">
+        <v>0.02631578947368421</v>
+      </c>
+      <c r="F40" t="n" s="799">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="G40" t="n" s="800">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="H40" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="790">
+        <v>23</v>
+      </c>
+      <c r="B41" t="n" s="795">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="C41" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D41" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E41" t="n" s="798">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="F41" t="n" s="799">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="G41" t="n" s="800">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="H41" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="790">
         <v>18</v>
       </c>
-      <c r="B39" t="n" s="796">
+      <c r="B42" t="n" s="795">
         <v>0.07894736842105263</v>
       </c>
-      <c r="C39" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D39" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="n" s="799">
+      <c r="C42" t="n" s="796">
+        <v>0.9210526315789473</v>
+      </c>
+      <c r="D42" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E42" t="n" s="798">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n" s="799">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H42" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="790">
+        <v>19</v>
+      </c>
+      <c r="B43" t="n" s="795">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="C43" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D43" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E43" t="n" s="798">
         <v>0.34210526315789475</v>
       </c>
-      <c r="F39" t="n" s="800">
+      <c r="F43" t="n" s="799">
         <v>0.4473684210526316</v>
       </c>
-      <c r="G39" t="n" s="801">
+      <c r="G43" t="n" s="800">
         <v>0.13157894736842105</v>
       </c>
-      <c r="H39" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="791">
-        <v>19</v>
-      </c>
-      <c r="B40" t="n" s="796">
+      <c r="H43" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="790">
+        <v>20</v>
+      </c>
+      <c r="B44" t="n" s="795">
         <v>0.07894736842105263</v>
       </c>
-      <c r="C40" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D40" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E40" t="n" s="799">
+      <c r="C44" t="n" s="796">
+        <v>0.0</v>
+      </c>
+      <c r="D44" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E44" t="n" s="798">
         <v>0.23684210526315788</v>
       </c>
-      <c r="F40" t="n" s="800">
+      <c r="F44" t="n" s="799">
         <v>0.18421052631578946</v>
       </c>
-      <c r="G40" t="n" s="801">
+      <c r="G44" t="n" s="800">
         <v>0.5</v>
       </c>
-      <c r="H40" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="791">
-        <v>20</v>
-      </c>
-      <c r="B41" t="n" s="796">
+      <c r="H44" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="790">
+        <v>27</v>
+      </c>
+      <c r="B45" t="n" s="795">
+        <v>0.39473684210526316</v>
+      </c>
+      <c r="C45" t="n" s="796">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="D45" t="n" s="797">
+        <v>0.0</v>
+      </c>
+      <c r="E45" t="n" s="798">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="F45" t="n" s="799">
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="G45" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H45" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="790">
+        <v>28</v>
+      </c>
+      <c r="B46" t="n" s="795">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="C46" t="n" s="796">
+        <v>0.13157894736842105</v>
+      </c>
+      <c r="D46" t="n" s="797">
+        <v>0.05263157894736842</v>
+      </c>
+      <c r="E46" t="n" s="798">
+        <v>0.5</v>
+      </c>
+      <c r="F46" t="n" s="799">
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="G46" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H46" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="790">
+        <v>29</v>
+      </c>
+      <c r="B47" t="n" s="795">
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="C47" t="n" s="796">
         <v>0.02631578947368421</v>
       </c>
-      <c r="C41" t="n" s="797">
+      <c r="D47" t="n" s="797">
+        <v>0.2894736842105263</v>
+      </c>
+      <c r="E47" t="n" s="798">
+        <v>0.18421052631578946</v>
+      </c>
+      <c r="F47" t="n" s="799">
+        <v>0.2631578947368421</v>
+      </c>
+      <c r="G47" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H47" t="n" s="801">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="790">
+        <v>30</v>
+      </c>
+      <c r="B48" t="n" s="795">
+        <v>0.23684210526315788</v>
+      </c>
+      <c r="C48" t="n" s="796">
         <v>0.02631578947368421</v>
       </c>
-      <c r="D41" t="n" s="798">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="E41" t="n" s="799">
-        <v>0.23684210526315788</v>
-      </c>
-      <c r="F41" t="n" s="800">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="G41" t="n" s="801">
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="H41" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="791">
-        <v>21</v>
-      </c>
-      <c r="B42" t="n" s="796">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="C42" t="n" s="797">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="D42" t="n" s="798">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="E42" t="n" s="799">
+      <c r="D48" t="n" s="797">
         <v>0.34210526315789475</v>
       </c>
-      <c r="F42" t="n" s="800">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="G42" t="n" s="801">
-        <v>0.5</v>
-      </c>
-      <c r="H42" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s" s="791">
-        <v>28</v>
-      </c>
-      <c r="B43" t="n" s="796">
-        <v>0.23684210526315788</v>
-      </c>
-      <c r="C43" t="n" s="797">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="D43" t="n" s="798">
-        <v>0.2894736842105263</v>
-      </c>
-      <c r="E43" t="n" s="799">
+      <c r="E48" t="n" s="798">
+        <v>0.21052631578947367</v>
+      </c>
+      <c r="F48" t="n" s="799">
         <v>0.18421052631578946</v>
       </c>
-      <c r="F43" t="n" s="800">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="G43" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H43" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="791">
-        <v>29</v>
-      </c>
-      <c r="B44" t="n" s="796">
-        <v>0.23684210526315788</v>
-      </c>
-      <c r="C44" t="n" s="797">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="D44" t="n" s="798">
-        <v>0.34210526315789475</v>
-      </c>
-      <c r="E44" t="n" s="799">
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="F44" t="n" s="800">
-        <v>0.18421052631578946</v>
-      </c>
-      <c r="G44" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H44" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s" s="791">
-        <v>22</v>
-      </c>
-      <c r="B45" t="n" s="796">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="C45" t="n" s="797">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="D45" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E45" t="n" s="799">
-        <v>0.02631578947368421</v>
-      </c>
-      <c r="F45" t="n" s="800">
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="G45" t="n" s="801">
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="H45" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="791">
-        <v>23</v>
-      </c>
-      <c r="B46" t="n" s="796">
-        <v>0.631578947368421</v>
-      </c>
-      <c r="C46" t="n" s="797">
-        <v>0.0</v>
-      </c>
-      <c r="D46" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E46" t="n" s="799">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="F46" t="n" s="800">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="G46" t="n" s="801">
-        <v>0.2631578947368421</v>
-      </c>
-      <c r="H46" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s" s="791">
-        <v>26</v>
-      </c>
-      <c r="B47" t="n" s="796">
-        <v>0.39473684210526316</v>
-      </c>
-      <c r="C47" t="n" s="797">
-        <v>0.21052631578947367</v>
-      </c>
-      <c r="D47" t="n" s="798">
-        <v>0.0</v>
-      </c>
-      <c r="E47" t="n" s="799">
-        <v>0.2894736842105263</v>
-      </c>
-      <c r="F47" t="n" s="800">
-        <v>0.10526315789473684</v>
-      </c>
-      <c r="G47" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H47" t="n" s="802">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="791">
-        <v>27</v>
-      </c>
-      <c r="B48" t="n" s="796">
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="C48" t="n" s="797">
-        <v>0.13157894736842105</v>
-      </c>
-      <c r="D48" t="n" s="798">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="E48" t="n" s="799">
-        <v>0.5</v>
-      </c>
-      <c r="F48" t="n" s="800">
-        <v>0.15789473684210525</v>
-      </c>
-      <c r="G48" t="n" s="801">
-        <v>0.0</v>
-      </c>
-      <c r="H48" t="n" s="802">
+      <c r="G48" t="n" s="800">
+        <v>0.0</v>
+      </c>
+      <c r="H48" t="n" s="801">
         <v>0.0</v>
       </c>
     </row>
